--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="21075" windowHeight="9975"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="21075" windowHeight="9915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Things Done \ Date</t>
   </si>
   <si>
-    <t>Delete all leaves in a binary tree-execute</t>
-  </si>
-  <si>
     <t>1 Puzzle-try-BY EOD know ans</t>
   </si>
   <si>
@@ -34,30 +31,6 @@
   </si>
   <si>
     <t>In the same (M X N) matrix I have to print the matrix in increasing order of elements .write code for it(I used heap for that purpose and used concept of merging k sorted array)-Execute</t>
-  </si>
-  <si>
-    <t>Video-3</t>
-  </si>
-  <si>
-    <t>Video-4</t>
-  </si>
-  <si>
-    <t>Video-5</t>
-  </si>
-  <si>
-    <t>Video-6</t>
-  </si>
-  <si>
-    <t>Video-7</t>
-  </si>
-  <si>
-    <t>Video-8</t>
-  </si>
-  <si>
-    <t>Video-9</t>
-  </si>
-  <si>
-    <t>Video-10</t>
   </si>
   <si>
     <t xml:space="preserve"> A binary search tree is given with its two nodes interchanged. I had to find both the nodes.-Execute</t>
@@ -89,6 +62,33 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Video-32</t>
+  </si>
+  <si>
+    <t>Video-33</t>
+  </si>
+  <si>
+    <t>Video-34</t>
+  </si>
+  <si>
+    <t>Video-35</t>
+  </si>
+  <si>
+    <t>Video-36</t>
+  </si>
+  <si>
+    <t>Video-37</t>
+  </si>
+  <si>
+    <t>Video-38</t>
+  </si>
+  <si>
+    <t>Minimum number of jumps to reach end</t>
+  </si>
+  <si>
+    <t>Dynamic Programming | Set 7 (Coin Change)</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,110 +1232,108 @@
       </c>
     </row>
     <row r="2" spans="1:247" ht="120" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:247" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:247" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -172,6 +172,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,7 +485,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1239,7 @@
     </row>
     <row r="2" spans="1:247" ht="120" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1256,7 +1262,7 @@
       </c>
     </row>
     <row r="3" spans="1:247" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1274,7 +1280,7 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1298,7 +1304,7 @@
       </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="21075" windowHeight="9915"/>
+    <workbookView xWindow="240" yWindow="360" windowWidth="21075" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -178,6 +178,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,8 +490,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,14 +1244,14 @@
       </c>
     </row>
     <row r="2" spans="1:247" ht="120" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -1265,10 +1271,10 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="5"/>
@@ -1283,11 +1289,11 @@
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1307,10 +1313,10 @@
       <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Video-37</t>
   </si>
   <si>
-    <t>Video-38</t>
-  </si>
-  <si>
     <t>Minimum number of jumps to reach end</t>
   </si>
   <si>
@@ -95,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +104,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -184,6 +187,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,8 +496,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>5</v>
@@ -1275,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1313,24 +1319,24 @@
       <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -496,8 +496,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1260,7 @@
       <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="6" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -496,8 +496,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,8 +1283,8 @@
       <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
         <v>9</v>
@@ -1302,7 +1302,7 @@
       <c r="E4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -1326,7 +1326,7 @@
       <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="5" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Video-36</t>
-  </si>
-  <si>
-    <t>Video-37</t>
   </si>
   <si>
     <t>Minimum number of jumps to reach end</t>
@@ -497,7 +494,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,7 +1252,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>5</v>
@@ -1263,7 +1260,7 @@
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1281,11 +1278,11 @@
         <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1305,7 +1302,7 @@
       <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -1329,14 +1326,14 @@
       <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Video-35</t>
-  </si>
-  <si>
-    <t>Video-36</t>
   </si>
   <si>
     <t>Minimum number of jumps to reach end</t>
@@ -156,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -189,6 +186,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,8 +491,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>5</v>
@@ -1263,7 +1261,7 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -1278,12 +1276,12 @@
         <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="5"/>
@@ -1305,7 +1303,7 @@
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -1326,14 +1324,14 @@
       <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -80,6 +80,77 @@
   </si>
   <si>
     <t>Dynamic Programming | Set 7 (Coin Change)</t>
+  </si>
+  <si>
+    <t>Video-36</t>
+  </si>
+  <si>
+    <t>Video-37</t>
+  </si>
+  <si>
+    <t>Video-38</t>
+  </si>
+  <si>
+    <t>Video-39</t>
+  </si>
+  <si>
+    <t>Video-40</t>
+  </si>
+  <si>
+    <t>Video-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Two nodes of a BST are given. Print the path from 1st node to the 2nd node. 
+You are also provided the parent pointers in addition to normal left and right pointers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a Binary Tree, print left view of it. Left view of a Binary Tree is set of nodes visible when tree is visited from left side. Left view of following tree is 12, 10, 25.
+          12
+       /     \
+     10       30
+            /    \
+          25      40 </t>
+  </si>
+  <si>
+    <t>Given a Singly Linked List which contains integers, bring odd values in the beginning and even values at the end. The relative order of odd values, and that of even values should be maintained as it is.
+e.g. 34, 45, 78, 10, 33, 5
+    o/p: 45, 33, 5, 34, 78, 10</t>
+  </si>
+  <si>
+    <t>Given a Binary Tree, check if every node is sum of all of its children.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given a binary tree. I need to print the nodes in vertical line zigzag manner. For example: 1st vertical line from top to bottom, 2nd vertical line from bottom to top,3rd vertical line from top to bottom and so on
+                       5
+                    /     \
+                   3       7
+                  / \     / \
+   1   4   6   8
+                    /    \     \
+    2    9    10
+Answer would be –
+1
+2 3
+5 4 6
+9 7
+8
+10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given a large file with huge number of words group the anagrams of a word
+     hai how are you. iah ohw done woh.
+o/p:
+hai -&gt;iah
+how -&gt;woh -&gt;ohw
+done
+are</t>
+  </si>
+  <si>
+    <t>Given a binary tree, change the right pointer of every leaf node to the next leaf node (right to it but may be on different level).</t>
   </si>
 </sst>
 </file>
@@ -161,12 +232,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -187,6 +252,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,848 +562,916 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="247" width="50.7109375" style="1" customWidth="1"/>
+    <col min="2" max="11" width="50.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="60.28515625" style="1" customWidth="1"/>
+    <col min="13" max="247" width="50.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:247" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:247" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="6">
         <v>41558</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="6">
         <v>41559</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="6">
         <v>41560</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="6">
         <v>41561</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="6">
         <v>41562</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="6">
         <v>41563</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="6">
         <v>41564</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="6">
         <v>41565</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="6">
         <v>41566</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="6">
         <v>41567</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="6">
         <v>41568</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="6">
         <v>41569</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="6">
         <v>41570</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="6">
         <v>41571</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="6">
         <v>41572</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="6">
         <v>41573</v>
       </c>
-      <c r="R1" s="8">
+      <c r="R1" s="6">
         <v>41574</v>
       </c>
-      <c r="S1" s="8">
+      <c r="S1" s="6">
         <v>41575</v>
       </c>
-      <c r="T1" s="8">
+      <c r="T1" s="6">
         <v>41576</v>
       </c>
-      <c r="U1" s="8">
+      <c r="U1" s="6">
         <v>41577</v>
       </c>
-      <c r="V1" s="8">
+      <c r="V1" s="6">
         <v>41578</v>
       </c>
-      <c r="W1" s="8">
+      <c r="W1" s="6">
         <v>41579</v>
       </c>
-      <c r="X1" s="8">
+      <c r="X1" s="6">
         <v>41580</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Y1" s="6">
         <v>41581</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="Z1" s="6">
         <v>41582</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AA1" s="6">
         <v>41583</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AB1" s="6">
         <v>41584</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AC1" s="6">
         <v>41585</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AD1" s="6">
         <v>41586</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AE1" s="6">
         <v>41587</v>
       </c>
-      <c r="AF1" s="8">
+      <c r="AF1" s="6">
         <v>41588</v>
       </c>
-      <c r="AG1" s="8">
+      <c r="AG1" s="6">
         <v>41589</v>
       </c>
-      <c r="AH1" s="8">
+      <c r="AH1" s="6">
         <v>41590</v>
       </c>
-      <c r="AI1" s="8">
+      <c r="AI1" s="6">
         <v>41591</v>
       </c>
-      <c r="AJ1" s="8">
+      <c r="AJ1" s="6">
         <v>41592</v>
       </c>
-      <c r="AK1" s="8">
+      <c r="AK1" s="6">
         <v>41593</v>
       </c>
-      <c r="AL1" s="8">
+      <c r="AL1" s="6">
         <v>41594</v>
       </c>
-      <c r="AM1" s="8">
+      <c r="AM1" s="6">
         <v>41595</v>
       </c>
-      <c r="AN1" s="8">
+      <c r="AN1" s="6">
         <v>41596</v>
       </c>
-      <c r="AO1" s="8">
+      <c r="AO1" s="6">
         <v>41597</v>
       </c>
-      <c r="AP1" s="8">
+      <c r="AP1" s="6">
         <v>41598</v>
       </c>
-      <c r="AQ1" s="8">
+      <c r="AQ1" s="6">
         <v>41599</v>
       </c>
-      <c r="AR1" s="8">
+      <c r="AR1" s="6">
         <v>41600</v>
       </c>
-      <c r="AS1" s="8">
+      <c r="AS1" s="6">
         <v>41601</v>
       </c>
-      <c r="AT1" s="8">
+      <c r="AT1" s="6">
         <v>41602</v>
       </c>
-      <c r="AU1" s="8">
+      <c r="AU1" s="6">
         <v>41603</v>
       </c>
-      <c r="AV1" s="8">
+      <c r="AV1" s="6">
         <v>41604</v>
       </c>
-      <c r="AW1" s="8">
+      <c r="AW1" s="6">
         <v>41605</v>
       </c>
-      <c r="AX1" s="8">
+      <c r="AX1" s="6">
         <v>41606</v>
       </c>
-      <c r="AY1" s="8">
+      <c r="AY1" s="6">
         <v>41607</v>
       </c>
-      <c r="AZ1" s="8">
+      <c r="AZ1" s="6">
         <v>41608</v>
       </c>
-      <c r="BA1" s="8">
+      <c r="BA1" s="6">
         <v>41609</v>
       </c>
-      <c r="BB1" s="8">
+      <c r="BB1" s="6">
         <v>41610</v>
       </c>
-      <c r="BC1" s="8">
+      <c r="BC1" s="6">
         <v>41611</v>
       </c>
-      <c r="BD1" s="8">
+      <c r="BD1" s="6">
         <v>41612</v>
       </c>
-      <c r="BE1" s="8">
+      <c r="BE1" s="6">
         <v>41613</v>
       </c>
-      <c r="BF1" s="8">
+      <c r="BF1" s="6">
         <v>41614</v>
       </c>
-      <c r="BG1" s="8">
+      <c r="BG1" s="6">
         <v>41615</v>
       </c>
-      <c r="BH1" s="8">
+      <c r="BH1" s="6">
         <v>41616</v>
       </c>
-      <c r="BI1" s="8">
+      <c r="BI1" s="6">
         <v>41617</v>
       </c>
-      <c r="BJ1" s="8">
+      <c r="BJ1" s="6">
         <v>41618</v>
       </c>
-      <c r="BK1" s="8">
+      <c r="BK1" s="6">
         <v>41619</v>
       </c>
-      <c r="BL1" s="8">
+      <c r="BL1" s="6">
         <v>41620</v>
       </c>
-      <c r="BM1" s="8">
+      <c r="BM1" s="6">
         <v>41621</v>
       </c>
-      <c r="BN1" s="8">
+      <c r="BN1" s="6">
         <v>41622</v>
       </c>
-      <c r="BO1" s="8">
+      <c r="BO1" s="6">
         <v>41623</v>
       </c>
-      <c r="BP1" s="8">
+      <c r="BP1" s="6">
         <v>41624</v>
       </c>
-      <c r="BQ1" s="8">
+      <c r="BQ1" s="6">
         <v>41625</v>
       </c>
-      <c r="BR1" s="8">
+      <c r="BR1" s="6">
         <v>41626</v>
       </c>
-      <c r="BS1" s="8">
+      <c r="BS1" s="6">
         <v>41627</v>
       </c>
-      <c r="BT1" s="8">
+      <c r="BT1" s="6">
         <v>41628</v>
       </c>
-      <c r="BU1" s="8">
+      <c r="BU1" s="6">
         <v>41629</v>
       </c>
-      <c r="BV1" s="8">
+      <c r="BV1" s="6">
         <v>41630</v>
       </c>
-      <c r="BW1" s="8">
+      <c r="BW1" s="6">
         <v>41631</v>
       </c>
-      <c r="BX1" s="8">
+      <c r="BX1" s="6">
         <v>41632</v>
       </c>
-      <c r="BY1" s="8">
+      <c r="BY1" s="6">
         <v>41633</v>
       </c>
-      <c r="BZ1" s="8">
+      <c r="BZ1" s="6">
         <v>41634</v>
       </c>
-      <c r="CA1" s="8">
+      <c r="CA1" s="6">
         <v>41635</v>
       </c>
-      <c r="CB1" s="8">
+      <c r="CB1" s="6">
         <v>41636</v>
       </c>
-      <c r="CC1" s="8">
+      <c r="CC1" s="6">
         <v>41637</v>
       </c>
-      <c r="CD1" s="8">
+      <c r="CD1" s="6">
         <v>41638</v>
       </c>
-      <c r="CE1" s="8">
+      <c r="CE1" s="6">
         <v>41639</v>
       </c>
-      <c r="CF1" s="8">
+      <c r="CF1" s="6">
         <v>41640</v>
       </c>
-      <c r="CG1" s="8">
+      <c r="CG1" s="6">
         <v>41641</v>
       </c>
-      <c r="CH1" s="8">
+      <c r="CH1" s="6">
         <v>41642</v>
       </c>
-      <c r="CI1" s="8">
+      <c r="CI1" s="6">
         <v>41643</v>
       </c>
-      <c r="CJ1" s="8">
+      <c r="CJ1" s="6">
         <v>41644</v>
       </c>
-      <c r="CK1" s="8">
+      <c r="CK1" s="6">
         <v>41645</v>
       </c>
-      <c r="CL1" s="8">
+      <c r="CL1" s="6">
         <v>41646</v>
       </c>
-      <c r="CM1" s="8">
+      <c r="CM1" s="6">
         <v>41647</v>
       </c>
-      <c r="CN1" s="8">
+      <c r="CN1" s="6">
         <v>41648</v>
       </c>
-      <c r="CO1" s="8">
+      <c r="CO1" s="6">
         <v>41649</v>
       </c>
-      <c r="CP1" s="8">
+      <c r="CP1" s="6">
         <v>41650</v>
       </c>
-      <c r="CQ1" s="8">
+      <c r="CQ1" s="6">
         <v>41651</v>
       </c>
-      <c r="CR1" s="8">
+      <c r="CR1" s="6">
         <v>41652</v>
       </c>
-      <c r="CS1" s="8">
+      <c r="CS1" s="6">
         <v>41653</v>
       </c>
-      <c r="CT1" s="8">
+      <c r="CT1" s="6">
         <v>41654</v>
       </c>
-      <c r="CU1" s="8">
+      <c r="CU1" s="6">
         <v>41655</v>
       </c>
-      <c r="CV1" s="8">
+      <c r="CV1" s="6">
         <v>41656</v>
       </c>
-      <c r="CW1" s="8">
+      <c r="CW1" s="6">
         <v>41657</v>
       </c>
-      <c r="CX1" s="8">
+      <c r="CX1" s="6">
         <v>41658</v>
       </c>
-      <c r="CY1" s="8">
+      <c r="CY1" s="6">
         <v>41659</v>
       </c>
-      <c r="CZ1" s="8">
+      <c r="CZ1" s="6">
         <v>41660</v>
       </c>
-      <c r="DA1" s="8">
+      <c r="DA1" s="6">
         <v>41661</v>
       </c>
-      <c r="DB1" s="8">
+      <c r="DB1" s="6">
         <v>41662</v>
       </c>
-      <c r="DC1" s="8">
+      <c r="DC1" s="6">
         <v>41663</v>
       </c>
-      <c r="DD1" s="8">
+      <c r="DD1" s="6">
         <v>41664</v>
       </c>
-      <c r="DE1" s="8">
+      <c r="DE1" s="6">
         <v>41665</v>
       </c>
-      <c r="DF1" s="8">
+      <c r="DF1" s="6">
         <v>41666</v>
       </c>
-      <c r="DG1" s="8">
+      <c r="DG1" s="6">
         <v>41667</v>
       </c>
-      <c r="DH1" s="8">
+      <c r="DH1" s="6">
         <v>41668</v>
       </c>
-      <c r="DI1" s="8">
+      <c r="DI1" s="6">
         <v>41669</v>
       </c>
-      <c r="DJ1" s="8">
+      <c r="DJ1" s="6">
         <v>41670</v>
       </c>
-      <c r="DK1" s="8">
+      <c r="DK1" s="6">
         <v>41671</v>
       </c>
-      <c r="DL1" s="8">
+      <c r="DL1" s="6">
         <v>41672</v>
       </c>
-      <c r="DM1" s="8">
+      <c r="DM1" s="6">
         <v>41673</v>
       </c>
-      <c r="DN1" s="8">
+      <c r="DN1" s="6">
         <v>41674</v>
       </c>
-      <c r="DO1" s="8">
+      <c r="DO1" s="6">
         <v>41675</v>
       </c>
-      <c r="DP1" s="8">
+      <c r="DP1" s="6">
         <v>41676</v>
       </c>
-      <c r="DQ1" s="8">
+      <c r="DQ1" s="6">
         <v>41677</v>
       </c>
-      <c r="DR1" s="8">
+      <c r="DR1" s="6">
         <v>41678</v>
       </c>
-      <c r="DS1" s="8">
+      <c r="DS1" s="6">
         <v>41679</v>
       </c>
-      <c r="DT1" s="8">
+      <c r="DT1" s="6">
         <v>41680</v>
       </c>
-      <c r="DU1" s="8">
+      <c r="DU1" s="6">
         <v>41681</v>
       </c>
-      <c r="DV1" s="8">
+      <c r="DV1" s="6">
         <v>41682</v>
       </c>
-      <c r="DW1" s="8">
+      <c r="DW1" s="6">
         <v>41683</v>
       </c>
-      <c r="DX1" s="8">
+      <c r="DX1" s="6">
         <v>41684</v>
       </c>
-      <c r="DY1" s="8">
+      <c r="DY1" s="6">
         <v>41685</v>
       </c>
-      <c r="DZ1" s="8">
+      <c r="DZ1" s="6">
         <v>41686</v>
       </c>
-      <c r="EA1" s="8">
+      <c r="EA1" s="6">
         <v>41687</v>
       </c>
-      <c r="EB1" s="8">
+      <c r="EB1" s="6">
         <v>41688</v>
       </c>
-      <c r="EC1" s="8">
+      <c r="EC1" s="6">
         <v>41689</v>
       </c>
-      <c r="ED1" s="8">
+      <c r="ED1" s="6">
         <v>41690</v>
       </c>
-      <c r="EE1" s="8">
+      <c r="EE1" s="6">
         <v>41691</v>
       </c>
-      <c r="EF1" s="8">
+      <c r="EF1" s="6">
         <v>41692</v>
       </c>
-      <c r="EG1" s="8">
+      <c r="EG1" s="6">
         <v>41693</v>
       </c>
-      <c r="EH1" s="8">
+      <c r="EH1" s="6">
         <v>41694</v>
       </c>
-      <c r="EI1" s="8">
+      <c r="EI1" s="6">
         <v>41695</v>
       </c>
-      <c r="EJ1" s="8">
+      <c r="EJ1" s="6">
         <v>41696</v>
       </c>
-      <c r="EK1" s="8">
+      <c r="EK1" s="6">
         <v>41697</v>
       </c>
-      <c r="EL1" s="8">
+      <c r="EL1" s="6">
         <v>41698</v>
       </c>
-      <c r="EM1" s="8">
+      <c r="EM1" s="6">
         <v>41699</v>
       </c>
-      <c r="EN1" s="8">
+      <c r="EN1" s="6">
         <v>41700</v>
       </c>
-      <c r="EO1" s="8">
+      <c r="EO1" s="6">
         <v>41701</v>
       </c>
-      <c r="EP1" s="8">
+      <c r="EP1" s="6">
         <v>41702</v>
       </c>
-      <c r="EQ1" s="8">
+      <c r="EQ1" s="6">
         <v>41703</v>
       </c>
-      <c r="ER1" s="8">
+      <c r="ER1" s="6">
         <v>41704</v>
       </c>
-      <c r="ES1" s="8">
+      <c r="ES1" s="6">
         <v>41705</v>
       </c>
-      <c r="ET1" s="8">
+      <c r="ET1" s="6">
         <v>41706</v>
       </c>
-      <c r="EU1" s="8">
+      <c r="EU1" s="6">
         <v>41707</v>
       </c>
-      <c r="EV1" s="8">
+      <c r="EV1" s="6">
         <v>41708</v>
       </c>
-      <c r="EW1" s="8">
+      <c r="EW1" s="6">
         <v>41709</v>
       </c>
-      <c r="EX1" s="8">
+      <c r="EX1" s="6">
         <v>41710</v>
       </c>
-      <c r="EY1" s="8">
+      <c r="EY1" s="6">
         <v>41711</v>
       </c>
-      <c r="EZ1" s="8">
+      <c r="EZ1" s="6">
         <v>41712</v>
       </c>
-      <c r="FA1" s="8">
+      <c r="FA1" s="6">
         <v>41713</v>
       </c>
-      <c r="FB1" s="8">
+      <c r="FB1" s="6">
         <v>41714</v>
       </c>
-      <c r="FC1" s="8">
+      <c r="FC1" s="6">
         <v>41715</v>
       </c>
-      <c r="FD1" s="8">
+      <c r="FD1" s="6">
         <v>41716</v>
       </c>
-      <c r="FE1" s="8">
+      <c r="FE1" s="6">
         <v>41717</v>
       </c>
-      <c r="FF1" s="8">
+      <c r="FF1" s="6">
         <v>41718</v>
       </c>
-      <c r="FG1" s="8">
+      <c r="FG1" s="6">
         <v>41719</v>
       </c>
-      <c r="FH1" s="8">
+      <c r="FH1" s="6">
         <v>41720</v>
       </c>
-      <c r="FI1" s="8">
+      <c r="FI1" s="6">
         <v>41721</v>
       </c>
-      <c r="FJ1" s="8">
+      <c r="FJ1" s="6">
         <v>41722</v>
       </c>
-      <c r="FK1" s="8">
+      <c r="FK1" s="6">
         <v>41723</v>
       </c>
-      <c r="FL1" s="8">
+      <c r="FL1" s="6">
         <v>41724</v>
       </c>
-      <c r="FM1" s="8">
+      <c r="FM1" s="6">
         <v>41725</v>
       </c>
-      <c r="FN1" s="8">
+      <c r="FN1" s="6">
         <v>41726</v>
       </c>
-      <c r="FO1" s="8">
+      <c r="FO1" s="6">
         <v>41727</v>
       </c>
-      <c r="FP1" s="8">
+      <c r="FP1" s="6">
         <v>41728</v>
       </c>
-      <c r="FQ1" s="8">
+      <c r="FQ1" s="6">
         <v>41729</v>
       </c>
-      <c r="FR1" s="8">
+      <c r="FR1" s="6">
         <v>41730</v>
       </c>
-      <c r="FS1" s="8">
+      <c r="FS1" s="6">
         <v>41731</v>
       </c>
-      <c r="FT1" s="8">
+      <c r="FT1" s="6">
         <v>41732</v>
       </c>
-      <c r="FU1" s="8">
+      <c r="FU1" s="6">
         <v>41733</v>
       </c>
-      <c r="FV1" s="8">
+      <c r="FV1" s="6">
         <v>41734</v>
       </c>
-      <c r="FW1" s="8">
+      <c r="FW1" s="6">
         <v>41735</v>
       </c>
-      <c r="FX1" s="8">
+      <c r="FX1" s="6">
         <v>41736</v>
       </c>
-      <c r="FY1" s="8">
+      <c r="FY1" s="6">
         <v>41737</v>
       </c>
-      <c r="FZ1" s="8">
+      <c r="FZ1" s="6">
         <v>41738</v>
       </c>
-      <c r="GA1" s="8">
+      <c r="GA1" s="6">
         <v>41739</v>
       </c>
-      <c r="GB1" s="8">
+      <c r="GB1" s="6">
         <v>41740</v>
       </c>
-      <c r="GC1" s="8">
+      <c r="GC1" s="6">
         <v>41741</v>
       </c>
-      <c r="GD1" s="8">
+      <c r="GD1" s="6">
         <v>41742</v>
       </c>
-      <c r="GE1" s="8">
+      <c r="GE1" s="6">
         <v>41743</v>
       </c>
-      <c r="GF1" s="8">
+      <c r="GF1" s="6">
         <v>41744</v>
       </c>
-      <c r="GG1" s="8">
+      <c r="GG1" s="6">
         <v>41745</v>
       </c>
-      <c r="GH1" s="8">
+      <c r="GH1" s="6">
         <v>41746</v>
       </c>
-      <c r="GI1" s="8">
+      <c r="GI1" s="6">
         <v>41747</v>
       </c>
-      <c r="GJ1" s="8">
+      <c r="GJ1" s="6">
         <v>41748</v>
       </c>
-      <c r="GK1" s="8">
+      <c r="GK1" s="6">
         <v>41749</v>
       </c>
-      <c r="GL1" s="8">
+      <c r="GL1" s="6">
         <v>41750</v>
       </c>
-      <c r="GM1" s="8">
+      <c r="GM1" s="6">
         <v>41751</v>
       </c>
-      <c r="GN1" s="8">
+      <c r="GN1" s="6">
         <v>41752</v>
       </c>
-      <c r="GO1" s="8">
+      <c r="GO1" s="6">
         <v>41753</v>
       </c>
-      <c r="GP1" s="8">
+      <c r="GP1" s="6">
         <v>41754</v>
       </c>
-      <c r="GQ1" s="8">
+      <c r="GQ1" s="6">
         <v>41755</v>
       </c>
-      <c r="GR1" s="8">
+      <c r="GR1" s="6">
         <v>41756</v>
       </c>
-      <c r="GS1" s="8">
+      <c r="GS1" s="6">
         <v>41757</v>
       </c>
-      <c r="GT1" s="8">
+      <c r="GT1" s="6">
         <v>41758</v>
       </c>
-      <c r="GU1" s="8">
+      <c r="GU1" s="6">
         <v>41759</v>
       </c>
-      <c r="GV1" s="8">
+      <c r="GV1" s="6">
         <v>41760</v>
       </c>
-      <c r="GW1" s="8">
+      <c r="GW1" s="6">
         <v>41761</v>
       </c>
-      <c r="GX1" s="8">
+      <c r="GX1" s="6">
         <v>41762</v>
       </c>
-      <c r="GY1" s="8">
+      <c r="GY1" s="6">
         <v>41763</v>
       </c>
-      <c r="GZ1" s="8">
+      <c r="GZ1" s="6">
         <v>41764</v>
       </c>
-      <c r="HA1" s="8">
+      <c r="HA1" s="6">
         <v>41765</v>
       </c>
-      <c r="HB1" s="8">
+      <c r="HB1" s="6">
         <v>41766</v>
       </c>
-      <c r="HC1" s="8">
+      <c r="HC1" s="6">
         <v>41767</v>
       </c>
-      <c r="HD1" s="8">
+      <c r="HD1" s="6">
         <v>41768</v>
       </c>
-      <c r="HE1" s="8">
+      <c r="HE1" s="6">
         <v>41769</v>
       </c>
-      <c r="HF1" s="8">
+      <c r="HF1" s="6">
         <v>41770</v>
       </c>
-      <c r="HG1" s="8">
+      <c r="HG1" s="6">
         <v>41771</v>
       </c>
-      <c r="HH1" s="8">
+      <c r="HH1" s="6">
         <v>41772</v>
       </c>
-      <c r="HI1" s="8">
+      <c r="HI1" s="6">
         <v>41773</v>
       </c>
-      <c r="HJ1" s="8">
+      <c r="HJ1" s="6">
         <v>41774</v>
       </c>
-      <c r="HK1" s="8">
+      <c r="HK1" s="6">
         <v>41775</v>
       </c>
-      <c r="HL1" s="8">
+      <c r="HL1" s="6">
         <v>41776</v>
       </c>
-      <c r="HM1" s="8">
+      <c r="HM1" s="6">
         <v>41777</v>
       </c>
-      <c r="HN1" s="8">
+      <c r="HN1" s="6">
         <v>41778</v>
       </c>
-      <c r="HO1" s="8">
+      <c r="HO1" s="6">
         <v>41779</v>
       </c>
-      <c r="HP1" s="8">
+      <c r="HP1" s="6">
         <v>41780</v>
       </c>
-      <c r="HQ1" s="8">
+      <c r="HQ1" s="6">
         <v>41781</v>
       </c>
-      <c r="HR1" s="8">
+      <c r="HR1" s="6">
         <v>41782</v>
       </c>
-      <c r="HS1" s="8">
+      <c r="HS1" s="6">
         <v>41783</v>
       </c>
-      <c r="HT1" s="8">
+      <c r="HT1" s="6">
         <v>41784</v>
       </c>
-      <c r="HU1" s="8">
+      <c r="HU1" s="6">
         <v>41785</v>
       </c>
-      <c r="HV1" s="8">
+      <c r="HV1" s="6">
         <v>41786</v>
       </c>
-      <c r="HW1" s="8">
+      <c r="HW1" s="6">
         <v>41787</v>
       </c>
-      <c r="HX1" s="8">
+      <c r="HX1" s="6">
         <v>41788</v>
       </c>
-      <c r="HY1" s="8">
+      <c r="HY1" s="6">
         <v>41789</v>
       </c>
-      <c r="HZ1" s="8">
+      <c r="HZ1" s="6">
         <v>41790</v>
       </c>
-      <c r="IA1" s="8">
+      <c r="IA1" s="6">
         <v>41791</v>
       </c>
-      <c r="IB1" s="8">
+      <c r="IB1" s="6">
         <v>41792</v>
       </c>
-      <c r="IC1" s="8">
+      <c r="IC1" s="6">
         <v>41793</v>
       </c>
-      <c r="ID1" s="8">
+      <c r="ID1" s="6">
         <v>41794</v>
       </c>
-      <c r="IE1" s="8">
+      <c r="IE1" s="6">
         <v>41795</v>
       </c>
-      <c r="IF1" s="8">
+      <c r="IF1" s="6">
         <v>41796</v>
       </c>
-      <c r="IG1" s="8">
+      <c r="IG1" s="6">
         <v>41797</v>
       </c>
-      <c r="IH1" s="8">
+      <c r="IH1" s="6">
         <v>41798</v>
       </c>
-      <c r="II1" s="8">
+      <c r="II1" s="6">
         <v>41799</v>
       </c>
-      <c r="IJ1" s="8">
+      <c r="IJ1" s="6">
         <v>41800</v>
       </c>
-      <c r="IK1" s="8">
+      <c r="IK1" s="6">
         <v>41801</v>
       </c>
-      <c r="IL1" s="8">
+      <c r="IL1" s="6">
         <v>41802</v>
       </c>
-      <c r="IM1" s="8">
+      <c r="IM1" s="6">
         <v>41803</v>
       </c>
     </row>
-    <row r="2" spans="1:247" ht="120" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:247" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:247" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="7"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="4" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -562,8 +562,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L2" sqref="L2"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1343,7 @@
       <c r="L2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="N2" s="14" t="s">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="I3" s="7"/>
       <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="M3" s="7"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
@@ -1410,10 +1410,10 @@
       <c r="I4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -1457,19 +1457,21 @@
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
     </row>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -562,8 +562,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L9" sqref="L9"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,7 +1460,7 @@
       <c r="L5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="2" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="360" windowWidth="21075" windowHeight="9795"/>
+    <workbookView xWindow="240" yWindow="420" windowWidth="21075" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -257,6 +257,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,8 +565,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N8" sqref="N8"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1349,7 @@
       <c r="M2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="15" t="s">
         <v>28</v>
       </c>
       <c r="O2" s="14" t="s">
@@ -1381,7 +1384,7 @@
       <c r="I3" s="7"/>
       <c r="L3" s="13"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="13"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
@@ -1416,7 +1419,7 @@
       <c r="M4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O4" s="2" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -151,6 +151,22 @@
   </si>
   <si>
     <t>Given a binary tree, change the right pointer of every leaf node to the next leaf node (right to it but may be on different level).</t>
+  </si>
+  <si>
+    <t>video-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a dl representing the spiral level order traversal of a binary tree,convert it to a binary tree inplace. In Last level, nodes will be either to the right or left only. complete code in C
+eg 1-2-3-4-5-6-7-8
+o/p--
+  1
+       /   \
+            3      2
+           /  \   /  \
+          4   5  6    7
+                       \
+                        8
+</t>
   </si>
 </sst>
 </file>
@@ -565,8 +581,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N3" sqref="N3"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,17 +1368,29 @@
       <c r="N2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:247" ht="60" x14ac:dyDescent="0.25">
@@ -1422,14 +1450,26 @@
       <c r="N4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
+      <c r="S4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -1466,17 +1506,20 @@
       <c r="M5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
+      <c r="S5" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -581,8 +581,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T17" sqref="T17"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1336,7 @@
         <v>41803</v>
       </c>
     </row>
-    <row r="2" spans="1:247" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:247" ht="330" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -1390,6 +1390,18 @@
         <v>34</v>
       </c>
       <c r="V2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="14" t="s">
         <v>32</v>
       </c>
     </row>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -167,6 +167,12 @@
                        \
                         8
 </t>
+  </si>
+  <si>
+    <t>1-puzzle</t>
+  </si>
+  <si>
+    <t>stacks</t>
   </si>
 </sst>
 </file>
@@ -581,8 +587,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB4" sqref="AB4"/>
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1398,7 @@
       <c r="V2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="AB2" s="14" t="s">
@@ -1402,6 +1408,12 @@
         <v>34</v>
       </c>
       <c r="AD2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1429,6 +1441,12 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
+      <c r="AG3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:247" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -1481,6 +1499,12 @@
       </c>
       <c r="V4" s="14" t="s">
         <v>1</v>
+      </c>
+      <c r="AG4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="420" windowWidth="21075" windowHeight="9735"/>
+    <workbookView xWindow="240" yWindow="480" windowWidth="21075" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="topRight" activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,7 +1441,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
-      <c r="AG3" s="14" t="s">
+      <c r="AG3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AH3" s="14" t="s">
@@ -1500,10 +1500,10 @@
       <c r="V4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AG4" s="14" t="s">
+      <c r="AG4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AH4" s="14" t="s">
+      <c r="AH4" s="4" t="s">
         <v>36</v>
       </c>
     </row>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -588,7 +588,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH7" sqref="AH7"/>
+      <selection pane="topRight" activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,7 +1413,7 @@
       <c r="AG2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AH2" s="4" t="s">
         <v>32</v>
       </c>
     </row>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="480" windowWidth="21075" windowHeight="9675"/>
+    <workbookView xWindow="240" yWindow="540" windowWidth="21075" windowHeight="9615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -173,6 +173,56 @@
   </si>
   <si>
     <t>stacks</t>
+  </si>
+  <si>
+    <t>Cormen-Introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Given a binary tree, find the number of pairs where sum of 2 nodes’ values equal to k
+Eg:
+ 1
+2 3
+4 5 7 
+Say k=7, output =2 ( 2+5, 3+4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Write code for minHeapify() operation.</t>
+  </si>
+  <si>
+    <t>QuickSort-Cormen</t>
+  </si>
+  <si>
+    <t>Mirror a tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Print the first non-repeated character in a string.</t>
+  </si>
+  <si>
+    <t>Given a Binary Tree, extract all leaves of it in a Doubly Linked List (DLL). Note that the DLL need to be created in-place. Assume that the node structure of DLL and Binary Tree is same, only the meaning of left and right pointers are different. In DLL, left means previous pointer and right means next pointer.</t>
+  </si>
+  <si>
+    <t>Given a string, recursively remove adjacent duplicate characters from string. The output string should not have any adjacent duplicates.</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>Counting Sort</t>
+  </si>
+  <si>
+    <t>Radix sort</t>
+  </si>
+  <si>
+    <t>Bucket sort</t>
+  </si>
+  <si>
+    <t>Stacks and queue</t>
+  </si>
+  <si>
+    <t>Hash Tables</t>
   </si>
 </sst>
 </file>
@@ -246,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -281,6 +331,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -587,8 +640,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG3" sqref="AG3"/>
+      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AZ3" sqref="AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1451,7 @@
       <c r="V2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="15" t="s">
         <v>30</v>
       </c>
       <c r="AB2" s="14" t="s">
@@ -1413,8 +1466,46 @@
       <c r="AG2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="15" t="s">
         <v>32</v>
+      </c>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA2" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:247" ht="60" x14ac:dyDescent="0.25">
@@ -1447,6 +1538,35 @@
       <c r="AH3" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:247" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -1505,6 +1625,29 @@
       </c>
       <c r="AH4" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AQ4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -191,9 +191,6 @@
 Write code for minHeapify() operation.</t>
   </si>
   <si>
-    <t>QuickSort-Cormen</t>
-  </si>
-  <si>
     <t>Mirror a tree.</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Hash Tables</t>
+  </si>
+  <si>
+    <t>HeapSort-Cormen</t>
   </si>
 </sst>
 </file>
@@ -640,8 +640,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ3" sqref="AZ3"/>
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,32 +1480,32 @@
       <c r="AQ2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AR2" s="14" t="s">
+      <c r="AR2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AS2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT2" s="14" t="s">
+      <c r="AS2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT2" s="15" t="s">
         <v>39</v>
       </c>
       <c r="AU2" s="14" t="s">
         <v>31</v>
       </c>
       <c r="AV2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AX2" s="16" t="s">
+      <c r="AY2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AY2" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="BA2" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:247" ht="60" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
       <c r="AQ3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AR3" s="15" t="s">
         <v>35</v>
       </c>
       <c r="AU3" s="2" t="s">
@@ -1635,19 +1635,19 @@
         <v>37</v>
       </c>
       <c r="AU4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AW4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AW4" s="2" t="s">
+      <c r="AX4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AX4" s="2" t="s">
+      <c r="AY4" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -640,8 +640,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS3" sqref="AS3"/>
+      <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,7 +1492,7 @@
       <c r="AU2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AV2" s="15" t="s">
         <v>40</v>
       </c>
       <c r="AW2" s="2" t="s">
@@ -1552,7 +1552,7 @@
       <c r="AR3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AU3" s="15" t="s">
         <v>35</v>
       </c>
       <c r="AV3" s="2" t="s">
@@ -1634,7 +1634,7 @@
       <c r="AQ4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AU4" s="2" t="s">
+      <c r="AU4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AV4" s="2" t="s">
@@ -1698,6 +1698,18 @@
       <c r="R5" s="14"/>
       <c r="S5" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="540" windowWidth="21075" windowHeight="9615"/>
+    <workbookView xWindow="240" yWindow="600" windowWidth="21075" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -641,7 +641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU2" sqref="AU2"/>
+      <selection pane="topRight" activeCell="AV3" sqref="AV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,7 +1489,7 @@
       <c r="AT2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AU2" s="14" t="s">
+      <c r="AU2" s="15" t="s">
         <v>31</v>
       </c>
       <c r="AV2" s="15" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -640,8 +640,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV3" sqref="AV3"/>
+      <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY6" sqref="AY6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,10 +1495,10 @@
       <c r="AV2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AW2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AX2" s="16" t="s">
+      <c r="AX2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="AY2" s="16" t="s">
@@ -1699,10 +1699,10 @@
       <c r="S5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AV5" s="2" t="s">
+      <c r="AV5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AW5" s="2" t="s">
+      <c r="AW5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="AX5" s="2" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -223,6 +223,42 @@
   </si>
   <si>
     <t>HeapSort-Cormen</t>
+  </si>
+  <si>
+    <t>Deepest left leaf node in a binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Print cousins of a given node (Not sibling)</t>
+  </si>
+  <si>
+    <t>You are given a file with many words. You are given a word as an input and you have to find every anagram of that word in the file.</t>
+  </si>
+  <si>
+    <t>Print pascal triangle and your output should be same as pascal triangular form (have to consider the space separation) .I told him two approaches and wrote the code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given two strings STR1 and STR2 .we need to find longest substring in STR1 whose all characters are taken from string STR2(was asked to write code for it in optimal time)
+    STR1-abcdefacbccbagfacbacer
+ STR2-abc
+ ans : length : 7
+    acbccba  (from position 7 to 13) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You are involved in a betting game whose rules are as follows :
+a) if you win a round, the bet amount will be added to your sum and next bet amount will be $1;
+b) if you lose a round, the bet amount will be reduced from your total sum and next bet will be twice the previous.
+c) game ends when all the rounds are complete or you dont have sufficient sum.
+Initially, you are given with a string of the form “WLWWL” where W indicates a win and L indicates a loss and initial sum. Initial bet amount will be $1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Simulate Reversed level order traversal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+WAP to encode and decode string.
+     aabbbbcccd &lt;-&gt;a2b4c3d1
+</t>
   </si>
 </sst>
 </file>
@@ -640,8 +676,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY6" sqref="AY6"/>
+      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BH3" sqref="BH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,8 +1540,26 @@
       <c r="AY2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="BA2" s="16" t="s">
-        <v>49</v>
+      <c r="BB2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH2" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:247" ht="60" x14ac:dyDescent="0.25">
@@ -1566,6 +1620,9 @@
       </c>
       <c r="AY3" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="BH3" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -676,8 +676,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH3" sqref="BH3"/>
+      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB3" sqref="BB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1431,7 @@
         <v>41803</v>
       </c>
     </row>
-    <row r="2" spans="1:247" ht="330" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:247" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -1540,7 +1540,7 @@
       <c r="AY2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="BB2" s="16" t="s">
+      <c r="BB2" s="4" t="s">
         <v>51</v>
       </c>
       <c r="BC2" s="14" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -332,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -367,9 +367,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -676,8 +673,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB3" sqref="BB3"/>
+      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1534,7 @@
       <c r="AX2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AY2" s="16" t="s">
+      <c r="AY2" s="15" t="s">
         <v>43</v>
       </c>
       <c r="BB2" s="4" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="600" windowWidth="21075" windowHeight="9555"/>
+    <workbookView xWindow="240" yWindow="660" windowWidth="21075" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -259,6 +259,18 @@
 WAP to encode and decode string.
      aabbbbcccd &lt;-&gt;a2b4c3d1
 </t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>Rat in Maze</t>
+  </si>
+  <si>
+    <t>Sudo ku</t>
+  </si>
+  <si>
+    <t>N-Queen</t>
   </si>
 </sst>
 </file>
@@ -670,11 +682,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY2" sqref="AY2"/>
+      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1553,7 @@
       <c r="BB2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BC2" s="14" t="s">
+      <c r="BC2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="BD2" s="14" t="s">
@@ -1618,6 +1631,18 @@
       <c r="AY3" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="BC3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="BH3" s="14" t="s">
         <v>58</v>
       </c>
@@ -1789,6 +1814,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1801,6 +1827,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -261,9 +261,6 @@
 </t>
   </si>
   <si>
-    <t>Permutations</t>
-  </si>
-  <si>
     <t>Rat in Maze</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>N-Queen</t>
+  </si>
+  <si>
+    <t>Permutations(I tried but not fully complted)</t>
   </si>
 </sst>
 </file>
@@ -686,8 +686,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC2" sqref="BC2"/>
+      <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BF5" sqref="BF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,18 +1631,19 @@
       <c r="AY3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BC3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BF3" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="BG3" s="13"/>
       <c r="BH3" s="14" t="s">
         <v>58</v>
       </c>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="660" windowWidth="21075" windowHeight="9495"/>
+    <workbookView xWindow="240" yWindow="720" windowWidth="21075" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -687,7 +687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF5" sqref="BF5"/>
+      <selection pane="topRight" activeCell="BC5" sqref="BC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1556,7 @@
       <c r="BC2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BD2" s="14" t="s">
+      <c r="BD2" s="4" t="s">
         <v>53</v>
       </c>
       <c r="BE2" s="14" t="s">
@@ -1631,7 +1631,7 @@
       <c r="AY3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BC3" s="4" t="s">
         <v>62</v>
       </c>
       <c r="BD3" s="13" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -686,8 +686,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC5" sqref="BC5"/>
+      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BH3" sqref="BH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1644,7 @@
         <v>61</v>
       </c>
       <c r="BG3" s="13"/>
-      <c r="BH3" s="14" t="s">
+      <c r="BH3" s="4" t="s">
         <v>58</v>
       </c>
     </row>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -686,8 +686,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH3" sqref="BH3"/>
+      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BE3" sqref="BE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1634,7 @@
       <c r="BC3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BD3" s="13" t="s">
+      <c r="BD3" s="4" t="s">
         <v>59</v>
       </c>
       <c r="BE3" s="13" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -687,7 +687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE3" sqref="BE3"/>
+      <selection pane="topRight" activeCell="BE6" sqref="BE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1559,7 @@
       <c r="BD2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BE2" s="14" t="s">
+      <c r="BE2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="BF2" s="14" t="s">
@@ -1637,7 +1637,7 @@
       <c r="BD3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BE3" s="13" t="s">
+      <c r="BE3" s="3" t="s">
         <v>60</v>
       </c>
       <c r="BF3" s="13" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="720" windowWidth="21075" windowHeight="9435"/>
+    <workbookView xWindow="240" yWindow="780" windowWidth="21075" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -271,6 +271,45 @@
   </si>
   <si>
     <t>Permutations(I tried but not fully complted)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given a binary tree , where as each node contains some integer values (value can be either positive or negative , and tree is not BST). Write a function to delete a path in the tree which is from root to leaf node where it is not a k-heavyweight path.
+k- heavyweight = the sum of the node values in the path from root to leaf should be greater than or equal to k . If the patch sum is less than k , we need to delete the path
+Example : Given following tree and value of k = 13
+     8
+   3    10
+  1  6    14
+   4  7  13 
+(here 8 is root, 3 and 10 are left and right children of 8. 1 and 6 are left and right children f 3, 4 and 7 are left and right children of 6, 14 is right child of 10 and finally 13 is left child of 14)
+The path which is not k heavy weight is 8+3+1 = 12 &lt; 13 so need to delete the nodes 1,3,8 but 3,8 are also part of path 8+3+6+4 = 21 which is greater than K hence 3 and 8 should not deleted and only 1 should be deleted.
+So Write a function to delete path which is not k heavy weight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given an unsorted array: Print all pairs having sum equal to given sum. After solving this, question was modified NOT to print duplicate pairs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Two strings are given. One of them is the initial string and other string contains characters as per their priority. Sort the initial string as per the given second string. characters in initial string may or may not be present in the second string. If not present, sort them in lexicographical order at the end of output.
+eg. String1 – ddloyc, String2 – odl
+Output – oddlcy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ An array of integers is given, find all the ranges present in the array.
+eg. 1 6 4 2 3 — ranges will be {1-4} and {6}.
+I used sorting to solve this problem, so some follow up questions about which sorting technique i would prefer here.
+What is the difference between merge sort and quick sort and when quick sort is preferred over merge sort, etc.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Given a number n, find the number just greater than n using same digits as that of n.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Given a number which denotes number of pair of parenthesis(only one type of parenthesis). Print all the valid permutation of those parenthesis(Approach + code).</t>
   </si>
 </sst>
 </file>
@@ -686,8 +725,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE6" sqref="BE6"/>
+      <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ5" sqref="BJ4:BJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,17 +1601,38 @@
       <c r="BE2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BF2" s="14" t="s">
+      <c r="BF2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="BG2" s="14" t="s">
+      <c r="BG2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="BH2" s="13" t="s">
+      <c r="BH2" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="BI2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO2" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="3" spans="1:247" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:247" ht="150" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1640,12 +1700,21 @@
       <c r="BE3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BF3" s="13" t="s">
+      <c r="BF3" s="10" t="s">
         <v>61</v>
       </c>
       <c r="BG3" s="13"/>
       <c r="BH3" s="4" t="s">
         <v>58</v>
+      </c>
+      <c r="BI3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK3" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:247" x14ac:dyDescent="0.25">
@@ -1728,6 +1797,21 @@
       </c>
       <c r="AY4" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="BI4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM4" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -286,9 +286,6 @@
 So Write a function to delete path which is not k heavy weight.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given an unsorted array: Print all pairs having sum equal to given sum. After solving this, question was modified NOT to print duplicate pairs.</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Two strings are given. One of them is the initial string and other string contains characters as per their priority. Sort the initial string as per the given second string. characters in initial string may or may not be present in the second string. If not present, sort them in lexicographical order at the end of output.
 eg. String1 – ddloyc, String2 – odl
@@ -310,6 +307,9 @@
   <si>
     <t xml:space="preserve">
  Given a number which denotes number of pair of parenthesis(only one type of parenthesis). Print all the valid permutation of those parenthesis(Approach + code).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given an unsorted array: Print all pairs having sum equal to given sum. After solving this, question was modified NOT to print duplicate pair</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BJ5" sqref="BJ4:BJ5"/>
+      <selection pane="topRight" activeCell="BK2" sqref="BK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,19 +1617,19 @@
         <v>56</v>
       </c>
       <c r="BK2" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="BL2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM2" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="BM2" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="BN2" s="14" t="s">
         <v>63</v>
       </c>
       <c r="BO2" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:247" ht="150" x14ac:dyDescent="0.25">
@@ -1714,7 +1714,7 @@
         <v>54</v>
       </c>
       <c r="BK3" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="780" windowWidth="21075" windowHeight="9375"/>
+    <workbookView xWindow="240" yWindow="840" windowWidth="21075" windowHeight="9315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -286,6 +286,9 @@
 So Write a function to delete path which is not k heavy weight.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Given an unsorted array: Print all pairs having sum equal to given sum. After solving this, question was modified NOT to print duplicate pairs.</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 Two strings are given. One of them is the initial string and other string contains characters as per their priority. Sort the initial string as per the given second string. characters in initial string may or may not be present in the second string. If not present, sort them in lexicographical order at the end of output.
 eg. String1 – ddloyc, String2 – odl
@@ -309,7 +312,10 @@
  Given a number which denotes number of pair of parenthesis(only one type of parenthesis). Print all the valid permutation of those parenthesis(Approach + code).</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given an unsorted array: Print all pairs having sum equal to given sum. After solving this, question was modified NOT to print duplicate pair</t>
+    <t xml:space="preserve"> Simulate Reversed level order traversal. </t>
+  </si>
+  <si>
+    <t>Heap sort</t>
   </si>
 </sst>
 </file>
@@ -725,8 +731,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK2" sqref="BK2"/>
+      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ2" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1614,7 @@
         <v>56</v>
       </c>
       <c r="BH2" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="BI2" s="14" t="s">
         <v>55</v>
@@ -1617,19 +1623,19 @@
         <v>56</v>
       </c>
       <c r="BK2" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="BL2" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM2" s="14" t="s">
         <v>66</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="BN2" s="14" t="s">
         <v>63</v>
       </c>
       <c r="BO2" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:247" ht="150" x14ac:dyDescent="0.25">
@@ -1714,7 +1720,10 @@
         <v>54</v>
       </c>
       <c r="BK3" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -284,9 +284,6 @@
 (here 8 is root, 3 and 10 are left and right children of 8. 1 and 6 are left and right children f 3, 4 and 7 are left and right children of 6, 14 is right child of 10 and finally 13 is left child of 14)
 The path which is not k heavy weight is 8+3+1 = 12 &lt; 13 so need to delete the nodes 1,3,8 but 3,8 are also part of path 8+3+6+4 = 21 which is greater than K hence 3 and 8 should not deleted and only 1 should be deleted.
 So Write a function to delete path which is not k heavy weight.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given an unsorted array: Print all pairs having sum equal to given sum. After solving this, question was modified NOT to print duplicate pairs.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -732,7 +729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BJ2" sqref="BJ2"/>
+      <selection pane="topRight" activeCell="BK3" sqref="BK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1611,7 @@
         <v>56</v>
       </c>
       <c r="BH2" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BI2" s="14" t="s">
         <v>55</v>
@@ -1622,20 +1619,20 @@
       <c r="BJ2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="14" t="s">
-        <v>64</v>
+      <c r="BK2" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="BL2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM2" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="BN2" s="14" t="s">
         <v>63</v>
       </c>
       <c r="BO2" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:247" ht="150" x14ac:dyDescent="0.25">
@@ -1720,10 +1717,7 @@
         <v>54</v>
       </c>
       <c r="BK3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="840" windowWidth="21075" windowHeight="9315"/>
+    <workbookView xWindow="240" yWindow="900" windowWidth="21075" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -729,7 +729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK3" sqref="BK3"/>
+      <selection pane="topRight" activeCell="BL3" sqref="BL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,10 +1622,10 @@
       <c r="BK2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BL2" s="14" t="s">
+      <c r="BL2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BM2" s="15" t="s">
         <v>66</v>
       </c>
       <c r="BN2" s="14" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="900" windowWidth="21075" windowHeight="9255"/>
+    <workbookView xWindow="240" yWindow="960" windowWidth="21075" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -729,7 +729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BL3" sqref="BL3"/>
+      <selection pane="topRight" activeCell="BK3" sqref="BK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="960" windowWidth="21075" windowHeight="9195"/>
+    <workbookView xWindow="240" yWindow="1020" windowWidth="21075" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -729,7 +729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK3" sqref="BK3"/>
+      <selection pane="topRight" activeCell="BI3" sqref="BI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1628,7 @@
       <c r="BM2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BN2" s="14" t="s">
+      <c r="BN2" s="7" t="s">
         <v>63</v>
       </c>
       <c r="BO2" s="14" t="s">
@@ -1710,10 +1710,10 @@
       <c r="BH3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BI3" s="13" t="s">
+      <c r="BI3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BJ3" s="14" t="s">
+      <c r="BJ3" s="7" t="s">
         <v>54</v>
       </c>
       <c r="BK3" s="14" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -313,6 +313,61 @@
   </si>
   <si>
     <t>Heap sort</t>
+  </si>
+  <si>
+    <t>Two string S1 and S2 are given, check whether S1 is a shifted version of S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given an array of digits, form two numbers from those digits such that sum of those two numbers are minimum</t>
+  </si>
+  <si>
+    <t>Convert a given number to Roman numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+You are given a binary tree in which every node has left, right and a next pointer. Next pointer is null initially.
+You have to modify the tree in such a way that every node’s next pointer will point to the next node on the same level.
+O(1) space complexity code was required to be written.
+Eg.
+   1                                     1
+      2       3              ======&gt;   2-----------------&gt;3
+    4  5        6                    4--&gt;5-----------------&gt;6  </t>
+  </si>
+  <si>
+    <t>Find the square root of any number (square root can be a real number) without using any library function .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Find the lenght of longest path in a binary tree(diameter). I gave a O (nlogn) solution. He wanted O (n) solution. did that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given binary tree, connect all the nodes which are in same column. 1 caveat was that same 1 node can have 2 parents. Here as in example, node 7 is being pointed by 2 and 6.
+Solved it using level order traversal. Used a Map : columNo, Node. it would store the last visited node of that column. So whenever we visit a node, first we check if its corresponding column is present in hashmap. if not , it means its the first node of column, put into map. if the column present , then we will get the node stored in map and current node would be its nextVerticleSibling. and we update the map.
+He deed the dry run with example and code and he was OK with final approach.
+        1
+       /   \
+      2     6
+     /  \   / \
+   3      7    8
+   /           /  
+  4         12 
+ / \           \     
+5  9           13
+    \             \
+     10           14
+      \
+       11 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given a String s and int r , first fill each character row wise and print column wise.
+for e.g. String s = “abcdefgh” and r = 3
+so filling column wise would give :
+a d g
+b e h
+c f
+</t>
   </si>
 </sst>
 </file>
@@ -728,8 +783,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BI3" sqref="BI3"/>
+      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BR2" sqref="BR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,6 +1689,18 @@
       <c r="BO2" s="14" t="s">
         <v>67</v>
       </c>
+      <c r="BQ2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BT2" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:247" ht="150" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -1719,6 +1786,18 @@
       <c r="BK3" s="14" t="s">
         <v>64</v>
       </c>
+      <c r="BQ3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT3" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="4" spans="1:247" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -1814,6 +1893,18 @@
         <v>35</v>
       </c>
       <c r="BM4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BQ4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BR4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BT4" s="13" t="s">
         <v>35</v>
       </c>
     </row>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -783,8 +783,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR2" sqref="BR2"/>
+      <pane xSplit="1" topLeftCell="BP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BP5" sqref="BP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,7 +1689,7 @@
       <c r="BO2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="BQ2" s="14" t="s">
+      <c r="BQ2" s="15" t="s">
         <v>77</v>
       </c>
       <c r="BR2" s="14" t="s">
@@ -1786,7 +1786,7 @@
       <c r="BK3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="BQ3" s="13" t="s">
+      <c r="BQ3" s="15" t="s">
         <v>70</v>
       </c>
       <c r="BR3" s="13" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1020" windowWidth="21075" windowHeight="9135"/>
+    <workbookView xWindow="240" yWindow="1140" windowWidth="21075" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,8 +341,17 @@
 Find the lenght of longest path in a binary tree(diameter). I gave a O (nlogn) solution. He wanted O (n) solution. did that</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Given a String s and int r , first fill each character row wise and print column wise.
+for e.g. String s = “abcdefgh” and r = 3
+so filling column wise would give :
+a d g
+b e h
+c f
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given binary tree, connect all the nodes which are in same column. 1 caveat was that same 1 node can have 2 parents. Here as in example, node 7 is being pointed by 2 and 6.
-Solved it using level order traversal. Used a Map : columNo, Node. it would store the last visited node of that column. So whenever we visit a node, first we check if its corresponding column is present in hashmap. if not , it means its the first node of column, put into map. if the column present , then we will get the node stored in map and current node would be its nextVerticleSibling. and we update the map.
 He deed the dry run with example and code and he was OK with final approach.
         1
        /   \
@@ -357,16 +366,6 @@
      10           14
       \
        11 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Given a String s and int r , first fill each character row wise and print column wise.
-for e.g. String s = “abcdefgh” and r = 3
-so filling column wise would give :
-a d g
-b e h
-c f
 </t>
   </si>
 </sst>
@@ -783,8 +782,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BP5" sqref="BP5"/>
+      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BS3" sqref="BS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,15 +1689,15 @@
         <v>67</v>
       </c>
       <c r="BQ2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR2" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="BR2" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="BS2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="BT2" s="14" t="s">
+      <c r="BT2" s="15" t="s">
         <v>73</v>
       </c>
     </row>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1140" windowWidth="21075" windowHeight="9015"/>
+    <workbookView xWindow="240" yWindow="1320" windowWidth="20730" windowHeight="8835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="103">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -367,6 +367,132 @@
       \
        11 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Given a zigzag traversal construct a tree from it. Full working code was asked.
+ eg. 1 3 2 4 5 6 7 9 8
+   1
+               2   3
+                  4   5  6   7
+                8  9</t>
+  </si>
+  <si>
+    <t>Trim the Given BST by given min and max values. It means remove the nodes which have values less than min or greater than max. Write iterative and recursive – both the solutions.</t>
+  </si>
+  <si>
+    <t>least common ancestor in a binary tree [Note : not binary search tree ] [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Implement a stack using 2 queues. Now optimize the implementation.
+</t>
+  </si>
+  <si>
+    <t>Given a binary tree with parent pointers,
+ find the right sibling of a given node(pointer to the node will be given), if it doesn’t exist return null. Do it in O(1) space and O(n) time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Given a number which denotes number of pair of parenthesis(only one type of parenthesis). Print all the valid permutation of those parenthesis(Approach + code).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a 2d matrix in which rows are sorted in ascending order and columns are also sorted in ascending order .I need to find an element in optimal time complexity
+In the same (M X N) matrix I have to print the matrix in increasing order of elements .write code for it(I used heap for that purpose and used concept of merging k sorted array)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Given two strings STR1 and STR2 .we need to find longest substring in STR1 whose all characters are taken from string STR2(was asked to write code for it in optimal time)
+    STR1-abcdefacbccbagfacbacer
+ STR2-abc
+ ans : length : 7
+    acbccba  (from position 7 to 13) 
+</t>
+  </si>
+  <si>
+    <t>Given a tree where each node contains at max k children (a K-children tree, a binary tree contains at max 2 children left and right , a k-children tree can have at max K children )
+Implement below two functions, You design your Node class in such a way that the lock and unlock operations can be done in minimum time (best case time complexity is equal to height of the tree )
+ a) private static boolean lock(Node n)
+ b) private static boolean unlock(Node n) 
+In both the functions the given node ‘n’ should be locked or unlock and return value is boolean whether the operations lock or unlock are success or not. The conditions for lock and unlock as follows.
+-&gt; We can lock given node, if and only if there no locked node exists as in its children hierarchy ( if you consider a tree with given node as root, we can lock given node, if there is no lock in that tree ) and in the parent hierarchy till root (the path from root to given node should not contain any locked node).
+-&gt; unlock will release the lock for given locked node.
+NOTE : You need to create you own class which holds tree node so that both functions will be achieved with least time complexity O(height of the tree) in worst case</t>
+  </si>
+  <si>
+    <t>Implement 3 stacks in array, all approaches and code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Find the longest even length palindromic substring in a string.</t>
+  </si>
+  <si>
+    <t>You are given an array of integers(positive and negative). You have to find if there exists any sequence of numbers in it which has the sum zero. If there is any print the start index else print -1.
+For example: 1 2 3 -1 4 -3 2 is the array and the sequence is -1 4 -3 which returns sum as zero.
+Code and algorithm, both were required.</t>
+  </si>
+  <si>
+    <t>Check if a binary tree is balanced or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Given a singly linked list,in which the last node points to the middle node,delete the middle node and remove the loop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given an array of size n, find the majority element.Majority element is one which gets repeated for more than n/2 times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Find the square root of any number (square root can be a real number) without using any library function .
+I told him an approach using Newton-Raphson method. It was faster but he asked simple and optimal method so then i suggested binary search method ( O(log n)) and I was asked to code it and dictate and he ran the code on his system also.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given an array containing both positive and negative elements,
+ arrange in such a manner — 1 positive number,
+ then 1 negative,then 1 positive and so on. 
+If number of negative numbers are more,
+extra numbers should be kept in end and vice versa. 
+Note the order of negative and positive elements should be same
+ in the modified array and you are not allowed to use any extra space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given a class with n people,where each people plays a game with all other people.
+ Results are with you. You have to arrange them in a queue with a
+ condition that, a[i] should have won a[i-1], for all I,
+ you don’t need to care about a[i-2] . (a[i] may win or lose a[i-2]).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a string. Write a program to form a string with first character of all words.
+Ex: The bucket is full of water
+Output: Tbifow
+Check all edge and corner cases.
+</t>
+  </si>
+  <si>
+    <t>Given list of coins with various values (unlimited coins of each type) , find how many ways you can make a given value. (DP was expected.) Since it was not guaranteed that coin of value 1 would be present , we have to return -1 if the given value is not possible.</t>
+  </si>
+  <si>
+    <t>An array of n integers is there in which the range of elements is n, i.e., 
+the difference between maximum and minimum number is n. Find the repeating numbers.
+Question 2: An extension of Question 1. Was asked to find number of times each number is repeated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Multiply two linked lists represented by numbers. Only one linked list must be used to do all additions and store the result 
+i.e., intermediate additions should not be done with extra linked lists and finally computing the result.</t>
+  </si>
+  <si>
+    <t>5-Puzzles</t>
+  </si>
+  <si>
+    <t>Find the Right Node of the given key in a binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Connect same level nodes without level order traversal. (Code)(already done)</t>
   </si>
 </sst>
 </file>
@@ -781,9 +907,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BS3" sqref="BS3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CB4" sqref="CB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,8 +1826,36 @@
       <c r="BT2" s="15" t="s">
         <v>73</v>
       </c>
+      <c r="BV2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BW2" s="13"/>
+      <c r="BX2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="CB2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="CD2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE2" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="3" spans="1:247" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:247" ht="165" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1797,8 +1951,34 @@
       <c r="BT3" s="14" t="s">
         <v>74</v>
       </c>
+      <c r="BV3" s="13"/>
+      <c r="BW3" s="13"/>
+      <c r="BX3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE3" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="4" spans="1:247" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:247" ht="195" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1906,6 +2086,32 @@
       <c r="BT4" s="13" t="s">
         <v>35</v>
       </c>
+      <c r="BV4" s="13"/>
+      <c r="BW4" s="13"/>
+      <c r="BX4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="BY4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC4" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE4" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -1968,10 +2174,34 @@
       <c r="AY5" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="BY5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="BZ5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="CA5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="CB5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="CC5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="CD5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE5" s="13" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="BZ6" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -493,6 +493,18 @@
   <si>
     <t xml:space="preserve">
 Connect same level nodes without level order traversal. (Code)(already done)</t>
+  </si>
+  <si>
+    <t>1-Puzzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given a BT check if there is a BST in it. If it exists print the largest BST in the BT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How will you implement a stack using a priority queue. Push and pop should be in O(1).</t>
+  </si>
+  <si>
+    <t>2. Three mislabeled jars problem.</t>
   </si>
 </sst>
 </file>
@@ -907,9 +919,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CB4" sqref="CB4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CH4" sqref="CH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,6 +1866,12 @@
       <c r="CE2" s="7" t="s">
         <v>102</v>
       </c>
+      <c r="CG2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="3" spans="1:247" ht="165" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -1977,6 +1995,13 @@
       <c r="CE3" s="8" t="s">
         <v>72</v>
       </c>
+      <c r="CG3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="CH3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI3" s="13"/>
     </row>
     <row r="4" spans="1:247" ht="195" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -2112,6 +2137,9 @@
       <c r="CE4" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="CH4" s="14" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -2194,6 +2222,9 @@
       </c>
       <c r="CE5" s="13" t="s">
         <v>100</v>
+      </c>
+      <c r="CH5" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="114">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -505,6 +505,50 @@
   </si>
   <si>
     <t>2. Three mislabeled jars problem.</t>
+  </si>
+  <si>
+    <t>Given an array of strings, find the string which is made up of maximum number of other strings contained in the same array.
+e.g. “rat”, ”cat”, “abc”, “xyz”, “abcxyz”, “ratcatabc”, “xyzcatratabc”
+Answer: “xyzcatratabc”
+“abcxyz” contains 2 other strings,
+“ratcatabc” contains 3 other strings,
+“xyzcatratabc” contains 4 other strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  A sentence is given which contains lowercase English letters and spaces. It may contain multiple spaces. 
+Get first letter of every word and return the result as a string. The result should not contain any space. Complete the following method:
+static String getFirstLetterWord(String text) {  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Given an array of integers, find an index such that if you split the array into two parts 
+the absolute value of the difference between the sum of elements in both parts had to be minimum.
+ After giving him the logic, he changed it to split it into 3 parts such that sum of elements in all of them are equal. I had to code this one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given a word and a text, return the count of the occurences of anagrams of the word in the text.
+For eg. word is “for” and the text is “forxxorfxdofr”, anagrams of “for” will be “ofr”, “orf”,”fro”, etc. So the answer would be 3 for this particular example.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Given 2 string , find whether 2nd is sub-string of 1st or not. (it would be great if you solve with KMP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given list of coins with various values (unlimited coins of each type) , find how many ways you can make a given value. (DP was expected.) Since it was not guaranteed that coin of value 1 would be present , we have to return -1 if the given value is not possible.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array of size N, a window of size W slides over it by increment of slide S. If the window reaches to the end, we should stop there. Find a formula in form of N, S, W so that we can find the number of valid windows. Write a program to find minimum in every window and print it. Optimize it.
+e.g. {1,2,3,4,5}, W=2, S=1
+first window: {1,2} min=1
+second window(increment by S=1): {2,3}, min=2
+…
+last window: {4,5}, min=4
+The array might not be sorted. I have taken sorted array for simplicity.
+</t>
   </si>
 </sst>
 </file>
@@ -920,8 +964,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH4" sqref="CH4"/>
+      <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CP2" sqref="CP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,6 +1916,27 @@
       <c r="CH2" s="14" t="s">
         <v>104</v>
       </c>
+      <c r="CK2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="CM2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CN2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="CO2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="CP2" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="CQ2" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="3" spans="1:247" ht="165" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -2002,6 +2067,19 @@
         <v>103</v>
       </c>
       <c r="CI3" s="13"/>
+      <c r="CK3" s="13"/>
+      <c r="CL3" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM3" s="13"/>
+      <c r="CN3" s="13"/>
+      <c r="CO3" s="13"/>
+      <c r="CP3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ3" s="14" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" spans="1:247" ht="195" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -2140,6 +2218,27 @@
       <c r="CH4" s="14" t="s">
         <v>105</v>
       </c>
+      <c r="CK4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="CM4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="CP4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ4" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -2223,7 +2322,7 @@
       <c r="CE5" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="CH5" s="13" t="s">
+      <c r="CH5" s="4" t="s">
         <v>106</v>
       </c>
     </row>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1320" windowWidth="20730" windowHeight="8835"/>
+    <workbookView xWindow="240" yWindow="1380" windowWidth="20730" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -964,8 +964,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CP2" sqref="CP2"/>
+      <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CL2" sqref="CL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,7 +1916,7 @@
       <c r="CH2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="CK2" s="14" t="s">
+      <c r="CK2" s="7" t="s">
         <v>104</v>
       </c>
       <c r="CL2" s="14" t="s">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="CI3" s="13"/>
       <c r="CK3" s="13"/>
-      <c r="CL3" s="14" t="s">
+      <c r="CL3" s="7" t="s">
         <v>108</v>
       </c>
       <c r="CM3" s="13"/>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1380" windowWidth="20730" windowHeight="8775"/>
+    <workbookView xWindow="240" yWindow="1440" windowWidth="20730" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="119">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -548,6 +548,35 @@
 …
 last window: {4,5}, min=4
 The array might not be sorted. I have taken sorted array for simplicity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Two strings are given. One of them is the initial string and other string contains characters as per their priority. Sort the initial string as per the given second string. characters in initial string may or may not be present in the second string. If not present, sort them in lexicographical order at the end of output.
+eg. String1 – ddloyc, String2 – odl
+Output – oddlcy</t>
+  </si>
+  <si>
+    <t>You are given an array whose each element represents the height of the tower.
+ The width of every tower is 1. It starts raining. How much water is collected between the towers?
+Eg. [1,5,3,7,2] – then answer is 2 units between towers 5 and 7.
+Looks easy, but if you don’t observe well, then you might end up with the wrong logic like I did at first.
+ Also there are lots of possible corner cases. Luckily I could identify them all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Median of two sorted arrays.</t>
+  </si>
+  <si>
+    <t>Multiply two linked lists represented by numbers. Only one linked list must be used to do all additions and store the result 
+i.e., intermediate additions should not be done with extra linked lists and finally computing the result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array of n numbers with repetition of numbers. You need to find the max length of continuous sub array with at max 3 unique elements.
+For eg
+array: 1 2 3 1 4 3 4 1 2
+ans: 6 (3 1 4 3 4 1)
+Solution: Time complexity O(n)
+Extra Space O(1)
 </t>
   </si>
 </sst>
@@ -964,8 +993,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CL2" sqref="CL2"/>
+      <pane xSplit="1" topLeftCell="CV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CW3" sqref="CW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,10 +1948,10 @@
       <c r="CK2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="CL2" s="14" t="s">
+      <c r="CL2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="CM2" s="14" t="s">
+      <c r="CM2" s="7" t="s">
         <v>85</v>
       </c>
       <c r="CN2" s="14" t="s">
@@ -1931,11 +1960,32 @@
       <c r="CO2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="CP2" s="14" t="s">
+      <c r="CP2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="CQ2" s="14" t="s">
+      <c r="CQ2" s="7" t="s">
         <v>110</v>
+      </c>
+      <c r="CR2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="CS2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="CT2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="CU2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="CV2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="CW2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="CX2" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:247" ht="165" x14ac:dyDescent="0.25">
@@ -2079,6 +2129,12 @@
       </c>
       <c r="CQ3" s="14" t="s">
         <v>112</v>
+      </c>
+      <c r="CR3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX3" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:247" ht="195" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="119">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -993,8 +993,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CW3" sqref="CW3"/>
+      <pane xSplit="1" topLeftCell="DB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DD3" sqref="DD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1987,6 +1987,21 @@
       <c r="CX2" s="14" t="s">
         <v>117</v>
       </c>
+      <c r="CY2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="CZ2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="DA2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="DD2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="DE2" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="3" spans="1:247" ht="165" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -2130,10 +2145,19 @@
       <c r="CQ3" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="CR3" s="14" t="s">
+      <c r="CR3" s="7" t="s">
         <v>111</v>
       </c>
       <c r="CX3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="CY3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="CZ3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="DE3" s="14" t="s">
         <v>118</v>
       </c>
     </row>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="124">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -578,6 +578,39 @@
 Solution: Time complexity O(n)
 Extra Space O(1)
 </t>
+  </si>
+  <si>
+    <t>Given a binary tree, where every node value is a Digit from 1-9 .Find the sum of all the numbers which are formed from root to leaf paths . (Algo + Code )
+                                          6
+                                      /       \
+                                    3          5
+                                  /   \           \
+                                 2     5          4  
+                                      /   \
+                                     7    4
+  There are 4 leafs, hence 4 root to leaf paths:
+   Path                    Number
+  6-&gt;3-&gt;2                  632
+  6-&gt;3-&gt;5-&gt;7               6357
+  6-&gt;3-&gt;5-&gt;4               6354
+  6-&gt;5&gt;4                   654   
+Answer = 632 + 6375 + 6354 + 654 = 13997</t>
+  </si>
+  <si>
+    <t>Given a Binary tree and a arbirary node of that tree , find all the nodes at a Distance of K from that Node .Nodes DON’T have parent pointers.( Algo + Code )</t>
+  </si>
+  <si>
+    <t>Given a boolean 2-D matrix, find the number of unique rows in it.( Algo + Code )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Find the distance between two nodes in a binary tree, no parent pointers are given. I could solve this in post order traversal in o(n) time complexity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Find min and max element of an unsorted integer array.
+Very simple question you can do two pass on the array and find it, but number of comparisons will be o(2n). He asked me to reduce it.
+I gave an algorithm which will do the same in O((n/2)*3) which is fairly less than o(2n). They were impressed on my solution and asked weather I have any question .</t>
   </si>
 </sst>
 </file>
@@ -993,8 +1026,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DD3" sqref="DD3"/>
+      <pane xSplit="1" topLeftCell="DA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DA3" sqref="DA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,7 +2017,7 @@
       <c r="CW2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="CX2" s="14" t="s">
+      <c r="CX2" s="9" t="s">
         <v>117</v>
       </c>
       <c r="CY2" s="14" t="s">
@@ -1995,6 +2028,12 @@
       </c>
       <c r="DA2" s="14" t="s">
         <v>114</v>
+      </c>
+      <c r="DB2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="DC2" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="DD2" s="14" t="s">
         <v>113</v>
@@ -2148,7 +2187,7 @@
       <c r="CR3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="CX3" s="14" t="s">
+      <c r="CX3" s="9" t="s">
         <v>118</v>
       </c>
       <c r="CY3" s="14" t="s">
@@ -2156,6 +2195,15 @@
       </c>
       <c r="CZ3" s="14" t="s">
         <v>115</v>
+      </c>
+      <c r="DA3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="DB3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="DC3" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="DE3" s="14" t="s">
         <v>118</v>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1440" windowWidth="20730" windowHeight="8715"/>
+    <workbookView xWindow="240" yWindow="1500" windowWidth="20730" windowHeight="8655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1026,8 +1026,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DA3" sqref="DA3"/>
+      <pane xSplit="1" topLeftCell="CZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DB3" sqref="DB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2020,16 +2020,16 @@
       <c r="CX2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="CY2" s="14" t="s">
+      <c r="CY2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="CZ2" s="14" t="s">
+      <c r="CZ2" s="7" t="s">
         <v>107</v>
       </c>
       <c r="DA2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="DB2" s="14" t="s">
+      <c r="DB2" s="7" t="s">
         <v>119</v>
       </c>
       <c r="DC2" s="13" t="s">
@@ -2193,13 +2193,13 @@
       <c r="CY3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="CZ3" s="14" t="s">
+      <c r="CZ3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="DA3" s="14" t="s">
+      <c r="DA3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="DB3" s="14" t="s">
+      <c r="DB3" s="7" t="s">
         <v>122</v>
       </c>
       <c r="DC3" s="13" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="126">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -611,6 +611,22 @@
  Find min and max element of an unsorted integer array.
 Very simple question you can do two pass on the array and find it, but number of comparisons will be o(2n). He asked me to reduce it.
 I gave an algorithm which will do the same in O((n/2)*3) which is fairly less than o(2n). They were impressed on my solution and asked weather I have any question .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a file which contains N words. There may be M anagrams in that file, K words on each anagrams. K&gt;=1, M&gt;=1, N&gt;=1. You need to write an algorithm which will create one list for each anagram with k words and group all M lists with one data structure (This is the main area.we need to think a data structure which will minimize the space and time complexity of word Finding appropriate List and Inserting word).
+I could do the insertion in O(1) time by keeping track of tail pointer in each list. But finding the appropriate list needs o(n) in case of linked list, o(log(n)) in case of binary search tree. Using hash table, you can do this in o(1), but writing a hash function is difficult and inefficient in terms of time. Then I suggested Trie data structure.with this, we can reduce the time complexity well. But space complexity will be more. I told all the ideas to interviewer. They were much satisfied with this. And moved to next question(without writing code J)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2) Given an array if in a position let a[i][j] =1 then print all it’s row and column 1. You should not consider a position 1 after you made it 1 in your past computation.
+Note: In this question it is asked to not use any extra space.
+sample(input):
+(i) 00100            (ii)10
+    00000                01
+output:
+(i) 11111            (ii)11
+    00100                11</t>
   </si>
 </sst>
 </file>
@@ -1025,9 +1041,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DB3" sqref="DB3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DC4" sqref="DC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,7 +2058,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:247" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:247" ht="300" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
@@ -2205,11 +2221,14 @@
       <c r="DC3" s="13" t="s">
         <v>121</v>
       </c>
+      <c r="DD3" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="DE3" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:247" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:247" ht="210" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2366,6 +2385,12 @@
       </c>
       <c r="CQ4" s="13" t="s">
         <v>35</v>
+      </c>
+      <c r="DD4" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="DE4" s="14" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="131">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -627,6 +627,37 @@
 output:
 (i) 11111            (ii)11
     00100                11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given array of N integers ranging from 0 to N-1. Output maximum repeating integer. Use only O(1) memory.</t>
+  </si>
+  <si>
+    <t>Given a sentence. Find all the characters which are repeated more than 1 time and print them in lexicographical order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1) In a Tic-Tac-Toe game two players are playing where player 0 is denoted as 0 and player 1 is denoted as 1. Given a linked list of moves made by the players ,determine who is the winner and in how many moves he required for winning.
+Struct Move {
+   int p;    //Player number
+   int x;    //x and y pos in the tic-tac-toi
+   int y;
+  struct Move *next;
+};
+</t>
+  </si>
+  <si>
+    <t>An array of size n is given. The array contains digits from 0 to 9. I had to generate the maximum number using the digits in the array such that it is divisible by 2, 3 and 5
+eg: 1 array = 18760, output must be: 8160
+eg: 2 array = 7776, output must be: “no number can be formed”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+There is a N*N integer matrix Arr[N][N]. From the row r and column c, we can go to any of the following three indices:
+I.                Arr[ r+1 ][ c-1 ] (valid only if c-1&gt;=0)
+II.               Arr[ r+1 ][ c ]
+III.              Arr[ r+1 ][ c+1 ] (valid only if c+1&lt;=N-1)
+So if we start at any column index on row 0, what is the largest sum of any of the paths till row N-1.
+</t>
   </si>
 </sst>
 </file>
@@ -1041,9 +1072,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC4" sqref="DC4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DF3" sqref="DF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,6 +2088,21 @@
       <c r="DE2" s="14" t="s">
         <v>117</v>
       </c>
+      <c r="DF2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="DG2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="DH2" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="DI2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="DJ2" s="14" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="3" spans="1:247" ht="300" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -2227,6 +2273,13 @@
       <c r="DE3" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="DF3" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="DG3" s="13"/>
+      <c r="DH3" s="13"/>
+      <c r="DI3" s="13"/>
+      <c r="DJ3" s="13"/>
     </row>
     <row r="4" spans="1:247" ht="210" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1500" windowWidth="20730" windowHeight="8655"/>
+    <workbookView xWindow="240" yWindow="1560" windowWidth="20730" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1072,9 +1072,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DF3" sqref="DF3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DG2" sqref="DG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,7 +2079,7 @@
       <c r="DB2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="DC2" s="13" t="s">
+      <c r="DC2" s="7" t="s">
         <v>120</v>
       </c>
       <c r="DD2" s="14" t="s">
@@ -2088,7 +2088,7 @@
       <c r="DE2" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="DF2" s="14" t="s">
+      <c r="DF2" s="7" t="s">
         <v>114</v>
       </c>
       <c r="DG2" s="13" t="s">
@@ -2264,7 +2264,7 @@
       <c r="DB3" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="DC3" s="13" t="s">
+      <c r="DC3" s="7" t="s">
         <v>121</v>
       </c>
       <c r="DD3" s="14" t="s">
@@ -2273,7 +2273,7 @@
       <c r="DE3" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="DF3" s="13" t="s">
+      <c r="DF3" s="7" t="s">
         <v>126</v>
       </c>
       <c r="DG3" s="13"/>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1560" windowWidth="20730" windowHeight="8595"/>
+    <workbookView xWindow="240" yWindow="1620" windowWidth="20730" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1073,8 +1073,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DG2" sqref="DG2"/>
+      <pane xSplit="1" topLeftCell="DD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DE3" sqref="DE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2091,7 @@
       <c r="DF2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="DG2" s="13" t="s">
+      <c r="DG2" s="8" t="s">
         <v>127</v>
       </c>
       <c r="DH2" s="14" t="s">
@@ -2270,7 +2270,7 @@
       <c r="DD3" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="DE3" s="14" t="s">
+      <c r="DE3" s="7" t="s">
         <v>118</v>
       </c>
       <c r="DF3" s="7" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1620" windowWidth="20730" windowHeight="8535"/>
+    <workbookView xWindow="240" yWindow="1740" windowWidth="20730" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="139">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -658,6 +658,59 @@
 III.              Arr[ r+1 ][ c+1 ] (valid only if c+1&lt;=N-1)
 So if we start at any column index on row 0, what is the largest sum of any of the paths till row N-1.
 </t>
+  </si>
+  <si>
+    <t>Given an array of size N, a window of size W slides over it by increment of slide S. If the window reaches to the end, we should stop there. Find a formula in form of N, S, W so that we can find the number of valid windows. Write a program to find minimum in every window and print it. Optimize it.
+e.g. {1,2,3,4,5}, W=2, S=1
+first window: {1,2} min=1
+second window(increment by S=1): {2,3}, min=2
+…
+last window: {4,5}, min=4
+The array might not be sorted. I have taken sorted array for simplicity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+An array of size n is given. The array contains digits from 0 to 9. I had to generate the maximum number using the digits in the array such that it is divisible by 2, 3 and 5
+eg: 1 array = 18760, output must be: 8160
+eg: 2 array = 7776, output must be: “no number can be formed”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given an array and a fixed window size X, you have to find out the minimum value from every window.
+ De-queue was not allowed. So I had to do it using 2 stacks.
+</t>
+  </si>
+  <si>
+    <t>You have some packages and you have to decide the build order for them.
+A package should be built before the packages that depend on it.
+For example. A={B,C}, B={D}, C={}, D={E}, E={}, F={}
+So one possible build order for package “A” is E, D, B, C, A.
+You have to write a function which will take the package name and will return its build order. You have API which will return you the list of packages on which calling package depends on. For example, the API will return B and C in a list when you call it providing the parameter as package A.</t>
+  </si>
+  <si>
+    <t>given a string or say number .. for e.g. 134 now with each number , as per mobile’s keypad , some letters would be associated.
+here 1 – &gt; abc , 3-&gt;ghi, 4 -&gt;jkl . So we should print all the permutation such that we take 1 character from each of the number.
+input number can be of any arbitrary length.
+lets say each digit has m numbers associated , then for the input of length n , we need to generate n^m possible strings.
+Took a map of which would return all the letters for the number. solved it using recursion. its quite similar to permutation of string. .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+There is a N*N integer matrix Arr[N][N]. From the row r and column c, we can go to any of the following three indices:
+I.                Arr[ r+1 ][ c-1 ] (valid only if c-1&gt;=0)
+II.               Arr[ r+1 ][ c ]
+III.              Arr[ r+1 ][ c+1 ] (valid only if c+1&lt;=N-1)
+So if we start at any column index on row 0, what is the largest sum of any of the paths till row N-1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiply two linked lists represented by numbers. Only one linked list must be used to do all additions and store the result 
+i.e., intermediate additions should not be done with extra linked lists and finally computing the result.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Median of two sorted arrays.</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1126,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DE3" sqref="DE3"/>
+      <pane xSplit="1" topLeftCell="DO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DM2" sqref="DM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,7 +2147,7 @@
       <c r="DG2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="DH2" s="14" t="s">
+      <c r="DH2" s="7" t="s">
         <v>128</v>
       </c>
       <c r="DI2" s="14" t="s">
@@ -2102,6 +2155,21 @@
       </c>
       <c r="DJ2" s="14" t="s">
         <v>130</v>
+      </c>
+      <c r="DM2" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="DN2" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="DO2" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="DP2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="DQ2" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:247" ht="300" x14ac:dyDescent="0.25">
@@ -2280,6 +2348,19 @@
       <c r="DH3" s="13"/>
       <c r="DI3" s="13"/>
       <c r="DJ3" s="13"/>
+      <c r="DM3" s="13"/>
+      <c r="DN3" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="DO3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="DP3" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="DQ3" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="4" spans="1:247" ht="210" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -1126,8 +1126,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DM2" sqref="DM2"/>
+      <pane xSplit="1" topLeftCell="DL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DM3" sqref="DM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,7 +2156,7 @@
       <c r="DJ2" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="DM2" s="14" t="s">
+      <c r="DM2" s="7" t="s">
         <v>131</v>
       </c>
       <c r="DN2" s="14" t="s">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1740" windowWidth="20730" windowHeight="8415"/>
+    <workbookView xWindow="240" yWindow="1800" windowWidth="20730" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="140">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -711,6 +711,10 @@
   <si>
     <t xml:space="preserve">
  Median of two sorted arrays.</t>
+  </si>
+  <si>
+    <t>Given a grid with size m,n. Find the total number of distinct paths which starts from the start of the grip (top left corner say (0.0)) and reaches end of the grid (bottom right corner say (m-1,n-2)). On condition that you can only move in right direction i.e. positive x direction (+1, 0) or in up direction i.e. positive y direction (0, +1) from any given position.
+I wrote the code using recursion. Asked to write code without recursion using DP. also what is the time complexity of the program, given size of the grid is m X n</t>
   </si>
 </sst>
 </file>
@@ -784,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -820,6 +824,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,8 +1132,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DL1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DM1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="DM3" sqref="DM3"/>
     </sheetView>
   </sheetViews>
@@ -2159,7 +2166,7 @@
       <c r="DM2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="DN2" s="14" t="s">
+      <c r="DN2" s="7" t="s">
         <v>132</v>
       </c>
       <c r="DO2" s="14" t="s">
@@ -2170,6 +2177,9 @@
       </c>
       <c r="DQ2" s="14" t="s">
         <v>136</v>
+      </c>
+      <c r="DR2" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:247" ht="300" x14ac:dyDescent="0.25">
@@ -2349,7 +2359,7 @@
       <c r="DI3" s="13"/>
       <c r="DJ3" s="13"/>
       <c r="DM3" s="13"/>
-      <c r="DN3" s="14" t="s">
+      <c r="DN3" s="7" t="s">
         <v>133</v>
       </c>
       <c r="DO3" s="14" t="s">
@@ -2360,6 +2370,9 @@
       </c>
       <c r="DQ3" s="14" t="s">
         <v>137</v>
+      </c>
+      <c r="DR3" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:247" ht="210" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1800" windowWidth="20730" windowHeight="8355"/>
+    <workbookView xWindow="240" yWindow="1920" windowWidth="20730" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="147">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -715,6 +715,71 @@
   <si>
     <t>Given a grid with size m,n. Find the total number of distinct paths which starts from the start of the grip (top left corner say (0.0)) and reaches end of the grid (bottom right corner say (m-1,n-2)). On condition that you can only move in right direction i.e. positive x direction (+1, 0) or in up direction i.e. positive y direction (0, +1) from any given position.
 I wrote the code using recursion. Asked to write code without recursion using DP. also what is the time complexity of the program, given size of the grid is m X n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given two trees check if they are mirror images of each other or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Given an array of +ve as well as -ve numbers, find out whether it is possible or not to convert it to 0 by adding/subtracting operations on all the elements.
+e.g arr[]={1,2,3}
+YES (1+2-3)
+arr[]={3,6,2}
+3+6-2 != 0
+3-6-2 !=0
+-3-6-2 !=0
+-3-6+2 !=0
+-3+6-2 !=0
+-3+6+2 !=0
+3-6+2 !=0
+3+6+2 !=0
+Hence ans= NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array of n distinct integers sorted in ascending order. Find an index i s.t ar[i] = i. Return -1 if no such index exists. Note that integers in array can be negative.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design a stack which holds an integer value such that getMinimum() function should return the minimum element in the stack.
+FOLLOW UP: Implement popMin() function which would pop minimum element from the original stack. O(1) implementation was required.(Hint: Use LinkedList to implement stack and store address of minimum element node in min-stack)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Output nearest number greater than given number such that output is palindrome
+ex: 121:131
+900:909
+99:101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given a set of intervals like 5-10, 15-20, 25-40, 30-45, 50-100. Find the ith smallest number in these intervals.
+Assume there are no duplicate numbers.
+e.g:  1st smallest number = 5
+   6th smallest number = 10
+   7th smallest number = 15 and so on. 
+I told him that we would first sort the interval on basis of starting numbers. Then merge overlapping intervals to get a set of non-overlapping intervals like 5-10, 15-20, 25-45, 50-100. Now we can find the ith smallest number after finding the appropriate interval.
+FOLLOW UP: He then modified this question to accomodate duplicate numbers also.
+Suppose we have intervals like 5-10, 8-12. 
+Then total numbers in these two intervals would be: {5,6,7,8,8,9,9,10,10,11,12} 
+  So, 1st smallest number: 5
+   4th smallest number: 8
+   5th smallest number: 8 (here is the 
+change since now we have duplicate elements also) and so on. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Print an organisational hierarchy.
+Naveen manages Satish
+Satish manages Anushree
+Satish manages Sandeep
+Gurinder manages Naveen
+Gurinder-&gt;Naveen
+Naveen-&gt;Satish
+Satish-&gt;Anushree,Sandeep
+Anushree-&gt;
+Sandeep-&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -1132,9 +1197,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DM3" sqref="DM3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DU15" sqref="DU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,7 +2237,7 @@
       <c r="DO2" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="DP2" s="14" t="s">
+      <c r="DP2" s="7" t="s">
         <v>135</v>
       </c>
       <c r="DQ2" s="14" t="s">
@@ -2180,6 +2245,24 @@
       </c>
       <c r="DR2" s="16" t="s">
         <v>139</v>
+      </c>
+      <c r="DS2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="DT2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="DU2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="DV2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="DW2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="DX2" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:247" ht="300" x14ac:dyDescent="0.25">
@@ -2374,8 +2457,14 @@
       <c r="DR3" s="16" t="s">
         <v>56</v>
       </c>
+      <c r="DS3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="DT3" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="4" spans="1:247" ht="210" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:247" ht="225" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2538,6 +2627,15 @@
       </c>
       <c r="DE4" s="14" t="s">
         <v>125</v>
+      </c>
+      <c r="DR4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="DS4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="DT4" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1920" windowWidth="20730" windowHeight="8235"/>
+    <workbookView xWindow="240" yWindow="1980" windowWidth="20730" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1197,9 +1197,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="DS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DU15" sqref="DU15"/>
+      <selection pane="topRight" activeCell="DU3" sqref="DU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,7 +2249,7 @@
       <c r="DS2" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="DT2" s="14" t="s">
+      <c r="DT2" s="7" t="s">
         <v>56</v>
       </c>
       <c r="DU2" s="14" t="s">
@@ -2460,7 +2460,7 @@
       <c r="DS3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="DT3" s="14" t="s">
+      <c r="DT3" s="7" t="s">
         <v>134</v>
       </c>
     </row>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="149">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -780,6 +780,14 @@
 Anushree-&gt;
 Sandeep-&gt;
 </t>
+  </si>
+  <si>
+    <t>Given linked list as a-x-b-y-c-z
+output it as a-b-c-z-y-x
+that is reverse alternate element and append to end of list</t>
+  </si>
+  <si>
+    <t>Rotate a 2-D Matrix by 90 degrees</t>
   </si>
 </sst>
 </file>
@@ -1197,9 +1205,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DU3" sqref="DU3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EB3" sqref="EB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,6 +2272,12 @@
       <c r="DX2" s="14" t="s">
         <v>146</v>
       </c>
+      <c r="EA2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="EB2" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="3" spans="1:247" ht="300" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -2462,6 +2476,12 @@
       </c>
       <c r="DT3" s="7" t="s">
         <v>134</v>
+      </c>
+      <c r="EA3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="EB3" s="14" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:247" ht="225" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DY1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="DZ1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="EB3" sqref="EB3"/>
     </sheetView>
   </sheetViews>
@@ -2275,7 +2275,7 @@
       <c r="EA2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="EB2" s="14" t="s">
+      <c r="EB2" s="7" t="s">
         <v>136</v>
       </c>
     </row>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -2480,7 +2480,7 @@
       <c r="EA3" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="EB3" s="14" t="s">
+      <c r="EB3" s="7" t="s">
         <v>148</v>
       </c>
     </row>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="150">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -788,6 +788,9 @@
   </si>
   <si>
     <t>Rotate a 2-D Matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t>Rearrange an array so that arr[i] becomes arr[arr[i]] with O(1) extra space</t>
   </si>
 </sst>
 </file>
@@ -861,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -900,6 +903,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1205,9 +1211,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EB3" sqref="EB3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="FK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FK2" sqref="FK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,6 +2283,9 @@
       </c>
       <c r="EB2" s="7" t="s">
         <v>136</v>
+      </c>
+      <c r="FK2" s="17" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:247" ht="300" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="161">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -791,6 +791,39 @@
   </si>
   <si>
     <t>Rearrange an array so that arr[i] becomes arr[arr[i]] with O(1) extra space</t>
+  </si>
+  <si>
+    <t>Sherlock the beast</t>
+  </si>
+  <si>
+    <t>Chapter 4 complete</t>
+  </si>
+  <si>
+    <t>haloween party</t>
+  </si>
+  <si>
+    <t>daily task</t>
+  </si>
+  <si>
+    <t>Filling jars</t>
+  </si>
+  <si>
+    <t>Angry children</t>
+  </si>
+  <si>
+    <t>service lane</t>
+  </si>
+  <si>
+    <t>1-prob</t>
+  </si>
+  <si>
+    <t>intr</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>running time</t>
   </si>
 </sst>
 </file>
@@ -1212,8 +1245,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FK2" sqref="FK2"/>
+      <pane xSplit="1" topLeftCell="GM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GM3" sqref="GM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,7 +2000,7 @@
         <v>41803</v>
       </c>
     </row>
-    <row r="2" spans="1:247" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:247" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -2287,8 +2320,17 @@
       <c r="FK2" s="17" t="s">
         <v>149</v>
       </c>
+      <c r="GM2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="GN2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="GO2" s="13" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="3" spans="1:247" ht="300" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:247" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
@@ -2492,8 +2534,17 @@
       <c r="EB3" s="7" t="s">
         <v>148</v>
       </c>
+      <c r="GM3" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="GN3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="GO3" s="13" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="4" spans="1:247" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:247" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2666,6 +2717,15 @@
       <c r="DT4" s="14" t="s">
         <v>136</v>
       </c>
+      <c r="GM4" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="GN4" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="GO4" s="13" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -2752,6 +2812,15 @@
       <c r="CH5" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="GM5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="GN5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="GO5" s="13" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2759,6 +2828,15 @@
       </c>
       <c r="BZ6" s="8" t="s">
         <v>101</v>
+      </c>
+      <c r="GM6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="GN6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="GO6" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="169">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -824,6 +824,30 @@
   </si>
   <si>
     <t>running time</t>
+  </si>
+  <si>
+    <t>Gem Stones-Exe</t>
+  </si>
+  <si>
+    <t>Module 1 Assignments</t>
+  </si>
+  <si>
+    <t>Module 1-Self Assessments</t>
+  </si>
+  <si>
+    <t>Module 3</t>
+  </si>
+  <si>
+    <t>Module 4</t>
+  </si>
+  <si>
+    <t>Module 3,4-Self Assessments</t>
+  </si>
+  <si>
+    <t>Module 3,4 Assignments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-probs-gist </t>
   </si>
 </sst>
 </file>
@@ -1242,11 +1266,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IM8"/>
+  <dimension ref="A1:IM9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="GM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GM3" sqref="GM3"/>
+      <pane xSplit="1" topLeftCell="HH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HH12" sqref="HH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,6 +2353,9 @@
       <c r="GO2" s="13" t="s">
         <v>158</v>
       </c>
+      <c r="HH2" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="3" spans="1:247" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -2543,6 +2570,9 @@
       <c r="GO3" s="13" t="s">
         <v>159</v>
       </c>
+      <c r="HH3" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="4" spans="1:247" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -2726,6 +2756,9 @@
       <c r="GO4" s="13" t="s">
         <v>160</v>
       </c>
+      <c r="HH4" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -2821,6 +2854,9 @@
       <c r="GO5" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="HH5" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2838,15 +2874,29 @@
       <c r="GO6" s="13" t="s">
         <v>35</v>
       </c>
+      <c r="HH6" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="HH7" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="8" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="HH8" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="HH9" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="174">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -848,6 +848,21 @@
   </si>
   <si>
     <t xml:space="preserve">20-probs-gist </t>
+  </si>
+  <si>
+    <t>Hacker Rank-Functional Programming &gt;Introduction&gt;First Page-5 Probs From Down</t>
+  </si>
+  <si>
+    <t>GetAllUniqueNodes()-Interview Que(sterday)-Execute -Recursion</t>
+  </si>
+  <si>
+    <t>Reverse every 3 nodes-Execute -Recursion</t>
+  </si>
+  <si>
+    <t>Chapter 7 head first ooa&amp;d-Mor</t>
+  </si>
+  <si>
+    <t>Chapter 8-eve</t>
   </si>
 </sst>
 </file>
@@ -1269,8 +1284,8 @@
   <dimension ref="A1:IM9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="HH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HH12" sqref="HH12"/>
+      <pane xSplit="1" topLeftCell="HM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HM8" sqref="HM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,7 +1293,9 @@
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="11" width="50.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="60.28515625" style="1" customWidth="1"/>
-    <col min="13" max="247" width="50.7109375" style="1" customWidth="1"/>
+    <col min="13" max="220" width="50.7109375" style="1" customWidth="1"/>
+    <col min="221" max="221" width="76" style="1" customWidth="1"/>
+    <col min="222" max="247" width="50.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:247" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2356,6 +2373,9 @@
       <c r="HH2" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="HM2" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="3" spans="1:247" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -2573,6 +2593,9 @@
       <c r="HH3" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="HM3" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="4" spans="1:247" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -2759,6 +2782,9 @@
       <c r="HH4" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="HM4" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -2857,6 +2883,9 @@
       <c r="HH5" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="HM5" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2876,6 +2905,9 @@
       </c>
       <c r="HH6" s="2" t="s">
         <v>165</v>
+      </c>
+      <c r="HM6" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -1285,7 +1285,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="HM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HM8" sqref="HM8"/>
+      <selection pane="topRight" activeCell="HM13" sqref="HM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2593,7 +2593,7 @@
       <c r="HH3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="HM3" s="2" t="s">
+      <c r="HM3" s="4" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="HH4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="HM4" s="2" t="s">
+      <c r="HM4" s="4" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
       <c r="HH5" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="HM5" s="2" t="s">
+      <c r="HM5" s="4" t="s">
         <v>172</v>
       </c>
     </row>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="178">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -863,6 +863,18 @@
   </si>
   <si>
     <t>Chapter 8-eve</t>
+  </si>
+  <si>
+    <t>Sarath Probs Review</t>
+  </si>
+  <si>
+    <t>0S-Lecture Notes 1,2</t>
+  </si>
+  <si>
+    <t>Assessments</t>
+  </si>
+  <si>
+    <t>Assignments</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1296,8 @@
   <dimension ref="A1:IM9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="HM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HM13" sqref="HM13"/>
+      <pane xSplit="1" topLeftCell="HO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HO7" sqref="HO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,6 +2388,9 @@
       <c r="HM2" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="HO2" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="3" spans="1:247" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -2596,6 +2611,9 @@
       <c r="HM3" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="HO3" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="4" spans="1:247" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -2785,6 +2803,9 @@
       <c r="HM4" s="4" t="s">
         <v>171</v>
       </c>
+      <c r="HO4" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -2885,6 +2906,9 @@
       </c>
       <c r="HM5" s="4" t="s">
         <v>172</v>
+      </c>
+      <c r="HO5" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -1297,7 +1297,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="HO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HO7" sqref="HO7"/>
+      <selection pane="topRight" activeCell="HO11" sqref="HO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,6 +2054,9 @@
       </c>
     </row>
     <row r="2" spans="1:247" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" s="8"/>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -2393,6 +2396,9 @@
       </c>
     </row>
     <row r="3" spans="1:247" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
@@ -2616,6 +2622,9 @@
       </c>
     </row>
     <row r="4" spans="1:247" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2912,9 +2921,6 @@
       </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="BZ6" s="8" t="s">
         <v>101</v>
       </c>
@@ -2935,17 +2941,11 @@
       </c>
     </row>
     <row r="7" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="HH7" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="HH8" s="2" t="s">
         <v>166</v>
       </c>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -1297,7 +1297,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="HO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HO11" sqref="HO11"/>
+      <selection pane="topRight" activeCell="HO5" sqref="HO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2391,7 @@
       <c r="HM2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="HO2" s="2" t="s">
+      <c r="HO2" s="4" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       <c r="HM3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="HO3" s="2" t="s">
+      <c r="HO3" s="4" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="HM4" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="HO4" s="2" t="s">
+      <c r="HO4" s="4" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       <c r="HM5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="HO5" s="2" t="s">
+      <c r="HO5" s="3" t="s">
         <v>177</v>
       </c>
     </row>

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="182">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -875,6 +875,18 @@
   </si>
   <si>
     <t>Assignments</t>
+  </si>
+  <si>
+    <t>Birthday Gift</t>
+  </si>
+  <si>
+    <t>Integer power of 3 or not</t>
+  </si>
+  <si>
+    <t>Sarath Review</t>
+  </si>
+  <si>
+    <t>Pending H.W</t>
   </si>
 </sst>
 </file>
@@ -1296,8 +1308,8 @@
   <dimension ref="A1:IM9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="HO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HO5" sqref="HO5"/>
+      <pane xSplit="1" topLeftCell="HP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HQ8" sqref="HQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,6 +2406,9 @@
       <c r="HO2" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="HP2" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="3" spans="1:247" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2620,6 +2635,9 @@
       <c r="HO3" s="4" t="s">
         <v>175</v>
       </c>
+      <c r="HP3" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="4" spans="1:247" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2815,6 +2833,9 @@
       <c r="HO4" s="4" t="s">
         <v>176</v>
       </c>
+      <c r="HP4" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -2919,6 +2940,9 @@
       <c r="HO5" s="3" t="s">
         <v>177</v>
       </c>
+      <c r="HP5" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">
       <c r="BZ6" s="8" t="s">
@@ -2938,6 +2962,9 @@
       </c>
       <c r="HM6" s="2" t="s">
         <v>173</v>
+      </c>
+      <c r="HP6" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:247" x14ac:dyDescent="0.25">

--- a/trunk/Track Of Barani.xlsx
+++ b/trunk/Track Of Barani.xlsx
@@ -8,15 +8,50 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="May-July" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>WIN764BIT</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WIN764BIT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Public Holiday
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="211">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -877,23 +912,110 @@
     <t>Assignments</t>
   </si>
   <si>
-    <t>Birthday Gift</t>
-  </si>
-  <si>
-    <t>Integer power of 3 or not</t>
-  </si>
-  <si>
-    <t>Sarath Review</t>
-  </si>
-  <si>
-    <t>Pending H.W</t>
+    <t>Barani</t>
+  </si>
+  <si>
+    <t>Sarath</t>
+  </si>
+  <si>
+    <t>Head First Design Patterns</t>
+  </si>
+  <si>
+    <t>ASP.NET MVC</t>
+  </si>
+  <si>
+    <t>Hacker Rank</t>
+  </si>
+  <si>
+    <t>Programming Questions</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Puzzles</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>Applications Of Data Structures</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>BackTracking</t>
+  </si>
+  <si>
+    <t>Pattern Searching</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>7 Chapters one per one week end</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Syllabus</t>
+  </si>
+  <si>
+    <t>TimeLine</t>
+  </si>
+  <si>
+    <t>Jun 15-Aug 2</t>
+  </si>
+  <si>
+    <t>60 Programming Questions(30 in vacation ,30 in regular days)</t>
+  </si>
+  <si>
+    <t>May-27-Jul 30</t>
+  </si>
+  <si>
+    <t>Video Lectures Complete_Assignments+Assesments+Gate Interview Questions Solve</t>
+  </si>
+  <si>
+    <t>May-27-Jul 4</t>
+  </si>
+  <si>
+    <t>Weekly 5</t>
+  </si>
+  <si>
+    <t>All main searching,sorting with executable code-one per week in week end</t>
+  </si>
+  <si>
+    <t>Tremblay Book-Stack,Queue,Linked List,Tree,Graph</t>
+  </si>
+  <si>
+    <t>Jul 4-Jul 18</t>
+  </si>
+  <si>
+    <t>WEEKLY 1 IN BELOW 3 START PRACTICING WITH EXAMPLES-NO NEED TO SOLVE BY OWN-SOURCE GEEKS FOR GEEKS</t>
+  </si>
+  <si>
+    <t>Jul 18-Jul 30</t>
+  </si>
+  <si>
+    <t>Math(15 probs,Bit-5,Strings-10)</t>
+  </si>
+  <si>
+    <t>Pluralsight -2 Video Lectures(ASP.NET &amp;&amp; ASP.NET MVC)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,6 +1036,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -948,7 +1089,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -956,11 +1097,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1003,6 +1159,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,11 +1466,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IM9"/>
+  <dimension ref="A1:IM19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="HP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HQ8" sqref="HQ8"/>
+      <pane xSplit="1" topLeftCell="HV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HV2" sqref="HV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2066,8 +2227,8 @@
       </c>
     </row>
     <row r="2" spans="1:247" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
+      <c r="A2" t="s">
+        <v>178</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="7" t="s">
@@ -2403,17 +2564,11 @@
       <c r="HM2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="HO2" s="4" t="s">
+      <c r="HO2" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="HP2" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:247" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
@@ -2632,17 +2787,11 @@
       <c r="HM3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="HO3" s="4" t="s">
+      <c r="HO3" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="HP3" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:247" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2830,11 +2979,8 @@
       <c r="HM4" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="HO4" s="4" t="s">
+      <c r="HO4" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="HP4" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">
@@ -2937,11 +3083,8 @@
       <c r="HM5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="HO5" s="3" t="s">
+      <c r="HO5" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="HP5" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">
@@ -2963,9 +3106,6 @@
       <c r="HM6" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="HP6" s="1" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="7" spans="1:247" x14ac:dyDescent="0.25">
       <c r="HH7" s="2" t="s">
@@ -2973,6 +3113,9 @@
       </c>
     </row>
     <row r="8" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>179</v>
+      </c>
       <c r="HH8" s="2" t="s">
         <v>166</v>
       </c>
@@ -2980,6 +3123,21 @@
     <row r="9" spans="1:247" x14ac:dyDescent="0.25">
       <c r="HH9" s="2" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2989,15 +3147,157 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="99.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="20">
+        <v>41849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
